--- a/2026-1/UTI.xlsx
+++ b/2026-1/UTI.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB397"/>
+  <dimension ref="A1:AB401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26636,7 +26636,7 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -26650,59 +26650,71 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-6</t>
+          <t>GP/99-126-CA-PI-4</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>5016860</t>
+          <t>5017116</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>TRABAJOS INICIALES</t>
+          <t>ALBAÑILERIA</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0060</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>VARADA / DESVARADA</t>
+          <t>Remoción de lastre adicional</t>
         </is>
       </c>
       <c r="I297" t="n">
-        <v>0</v>
+        <v>1480.48</v>
       </c>
       <c r="J297" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>2051778677</v>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>MANNA S.A.C.</t>
+        </is>
+      </c>
+      <c r="M297" t="n">
+        <v>30019894</v>
+      </c>
       <c r="N297" s="3" t="n">
-        <v>46028</v>
+        <v>46061</v>
       </c>
       <c r="O297" s="3" t="n">
-        <v>46028</v>
-      </c>
-      <c r="P297" t="inlineStr"/>
+        <v>46061</v>
+      </c>
+      <c r="P297" s="3" t="n">
+        <v>46063</v>
+      </c>
       <c r="Q297" t="inlineStr"/>
       <c r="R297" t="n">
         <v>0</v>
       </c>
       <c r="S297" t="inlineStr"/>
       <c r="T297" s="3" t="n">
-        <v>46028</v>
+        <v>46063</v>
       </c>
       <c r="U297" s="3" t="n">
-        <v>46029</v>
-      </c>
-      <c r="V297" t="inlineStr"/>
+        <v>46063</v>
+      </c>
+      <c r="V297" s="3" t="n">
+        <v>46063</v>
+      </c>
       <c r="W297" t="inlineStr"/>
       <c r="X297" t="inlineStr"/>
       <c r="Y297" t="inlineStr"/>
@@ -26716,7 +26728,7 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -26730,73 +26742,91 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-6</t>
+          <t>GP/99-126-MO-PI-2</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>5016860</t>
+          <t>5017065</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>TRABAJOS INICIALES</t>
+          <t>DEFENSA DE RED</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>ESTADIA DE LA EMBARCACION</t>
+          <t>Cambio de defensa de red ER</t>
         </is>
       </c>
       <c r="I298" t="n">
-        <v>0</v>
+        <v>3730</v>
       </c>
       <c r="J298" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>2053201679</v>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>MULTISERVICIOS KYP S.A.C.</t>
+        </is>
+      </c>
+      <c r="M298" t="n">
+        <v>30019843</v>
+      </c>
       <c r="N298" s="3" t="n">
-        <v>46028</v>
+        <v>46041</v>
       </c>
       <c r="O298" s="3" t="n">
-        <v>46028</v>
-      </c>
-      <c r="P298" t="inlineStr"/>
+        <v>46079</v>
+      </c>
+      <c r="P298" s="3" t="n">
+        <v>46062</v>
+      </c>
       <c r="Q298" t="inlineStr"/>
       <c r="R298" t="n">
         <v>0</v>
       </c>
       <c r="S298" t="inlineStr"/>
       <c r="T298" s="3" t="n">
-        <v>46028</v>
+        <v>46036</v>
       </c>
       <c r="U298" s="3" t="n">
-        <v>46029</v>
-      </c>
-      <c r="V298" t="inlineStr"/>
+        <v>46036</v>
+      </c>
+      <c r="V298" s="3" t="n">
+        <v>46062</v>
+      </c>
       <c r="W298" t="inlineStr"/>
       <c r="X298" t="inlineStr"/>
-      <c r="Y298" t="inlineStr"/>
-      <c r="Z298" t="inlineStr"/>
-      <c r="AA298" t="inlineStr"/>
+      <c r="Y298" t="n">
+        <v>4897.996999999999</v>
+      </c>
+      <c r="Z298" t="n">
+        <v>2870.29</v>
+      </c>
+      <c r="AA298" t="n">
+        <v>631.5755</v>
+      </c>
       <c r="AB298" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>OPEX</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -26810,79 +26840,85 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-6</t>
+          <t>GP/99-126-MO-PI-2</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>5016860</t>
+          <t>5017074</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>TRABAJOS INICIALES</t>
+          <t>VENTANAS PARA ARENADO</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>0030</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>CALIBRACION</t>
+          <t>Apertura/cierre 01 ventana</t>
         </is>
       </c>
       <c r="I299" t="n">
-        <v>0</v>
+        <v>668.91</v>
       </c>
       <c r="J299" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>2053201679</v>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>MULTISERVICIOS KYP S.A.C.</t>
+        </is>
+      </c>
+      <c r="M299" t="n">
+        <v>30019821</v>
+      </c>
       <c r="N299" s="3" t="n">
-        <v>46028</v>
+        <v>46041</v>
       </c>
       <c r="O299" s="3" t="n">
-        <v>46028</v>
-      </c>
-      <c r="P299" t="inlineStr"/>
+        <v>46079</v>
+      </c>
+      <c r="P299" s="3" t="n">
+        <v>46062</v>
+      </c>
       <c r="Q299" t="inlineStr"/>
       <c r="R299" t="n">
         <v>0</v>
       </c>
       <c r="S299" t="inlineStr"/>
       <c r="T299" s="3" t="n">
-        <v>46028</v>
+        <v>46059</v>
       </c>
       <c r="U299" s="3" t="n">
-        <v>46029</v>
-      </c>
-      <c r="V299" t="inlineStr"/>
+        <v>46059</v>
+      </c>
+      <c r="V299" s="3" t="n">
+        <v>46062</v>
+      </c>
       <c r="W299" t="inlineStr"/>
       <c r="X299" t="inlineStr"/>
-      <c r="Y299" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z299" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA299" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y299" t="inlineStr"/>
+      <c r="Z299" t="inlineStr"/>
+      <c r="AA299" t="inlineStr"/>
       <c r="AB299" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>OPEX</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -26896,31 +26932,31 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-6</t>
+          <t>GP/99-126-MO-PI-2</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>5016861</t>
+          <t>5017180</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>PLUMA PPAL Y TANGÓN</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>0110</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Limpieza de Carril sem 4</t>
+          <t>Reparación de tangón</t>
         </is>
       </c>
       <c r="I300" t="n">
-        <v>684</v>
+        <v>2855.01</v>
       </c>
       <c r="J300" t="inlineStr">
         <is>
@@ -26928,24 +26964,24 @@
         </is>
       </c>
       <c r="K300" t="n">
-        <v>2060671352</v>
+        <v>2053201679</v>
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>MULTISERVICIOS KALEB S.A.C.</t>
+          <t>MULTISERVICIOS KYP S.A.C.</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>30019713</v>
+        <v>30019966</v>
       </c>
       <c r="N300" s="3" t="n">
-        <v>46028</v>
+        <v>46039</v>
       </c>
       <c r="O300" s="3" t="n">
-        <v>46028</v>
+        <v>46081</v>
       </c>
       <c r="P300" s="3" t="n">
-        <v>46055</v>
+        <v>46062</v>
       </c>
       <c r="Q300" t="inlineStr"/>
       <c r="R300" t="n">
@@ -26953,28 +26989,34 @@
       </c>
       <c r="S300" t="inlineStr"/>
       <c r="T300" s="3" t="n">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="U300" s="3" t="n">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="V300" s="3" t="n">
-        <v>46049</v>
+        <v>46062</v>
       </c>
       <c r="W300" t="inlineStr"/>
       <c r="X300" t="inlineStr"/>
-      <c r="Y300" t="inlineStr"/>
-      <c r="Z300" t="inlineStr"/>
-      <c r="AA300" t="inlineStr"/>
+      <c r="Y300" t="n">
+        <v>1501.007</v>
+      </c>
+      <c r="Z300" t="n">
+        <v>1282.9</v>
+      </c>
+      <c r="AA300" t="n">
+        <v>228.82146</v>
+      </c>
       <c r="AB300" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>OPEX</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -26988,31 +27030,31 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-6</t>
+          <t>GP/99-126-MO-PI-2</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>5016861</t>
+          <t>5017180</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>PLUMA PPAL Y TANGÓN</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>0100</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Servicio de grua</t>
+          <t>Reparación en pluma ppal</t>
         </is>
       </c>
       <c r="I301" t="n">
-        <v>6900</v>
+        <v>2051.48</v>
       </c>
       <c r="J301" t="inlineStr">
         <is>
@@ -27020,24 +27062,24 @@
         </is>
       </c>
       <c r="K301" t="n">
-        <v>2053203078</v>
+        <v>2053201679</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>TRANSGRUAS JHONDAVIS S.A.C.</t>
+          <t>MULTISERVICIOS KYP S.A.C.</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>30019713</v>
+        <v>30019966</v>
       </c>
       <c r="N301" s="3" t="n">
-        <v>46028</v>
+        <v>46039</v>
       </c>
       <c r="O301" s="3" t="n">
-        <v>46028</v>
+        <v>46050</v>
       </c>
       <c r="P301" s="3" t="n">
-        <v>46049</v>
+        <v>46062</v>
       </c>
       <c r="Q301" t="inlineStr"/>
       <c r="R301" t="n">
@@ -27045,28 +27087,34 @@
       </c>
       <c r="S301" t="inlineStr"/>
       <c r="T301" s="3" t="n">
-        <v>46049</v>
+        <v>46051</v>
       </c>
       <c r="U301" s="3" t="n">
-        <v>46049</v>
+        <v>46051</v>
       </c>
       <c r="V301" s="3" t="n">
-        <v>46048</v>
+        <v>46062</v>
       </c>
       <c r="W301" t="inlineStr"/>
       <c r="X301" t="inlineStr"/>
-      <c r="Y301" t="inlineStr"/>
-      <c r="Z301" t="inlineStr"/>
-      <c r="AA301" t="inlineStr"/>
+      <c r="Y301" t="n">
+        <v>3077.063</v>
+      </c>
+      <c r="Z301" t="n">
+        <v>1272.19</v>
+      </c>
+      <c r="AA301" t="n">
+        <v>18.487545</v>
+      </c>
       <c r="AB301" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>OPEX</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -27080,31 +27128,31 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-6</t>
+          <t>GP/99-126-CA-PI-2</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>5016861</t>
+          <t>5017176</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>PLUMA AUXILIAR</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>0090</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Limpieza de Carril sem 3</t>
+          <t>Confección de pluma auxiliar</t>
         </is>
       </c>
       <c r="I302" t="n">
-        <v>684</v>
+        <v>6280.78</v>
       </c>
       <c r="J302" t="inlineStr">
         <is>
@@ -27112,24 +27160,24 @@
         </is>
       </c>
       <c r="K302" t="n">
-        <v>2056921109</v>
+        <v>2053201679</v>
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>EMPRESA DE SERVICIOS MOBYDICK S.A.C</t>
+          <t>MULTISERVICIOS KYP S.A.C.</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>30019713</v>
+        <v>30019965</v>
       </c>
       <c r="N302" s="3" t="n">
-        <v>46028</v>
+        <v>46039</v>
       </c>
       <c r="O302" s="3" t="n">
-        <v>46028</v>
+        <v>46050</v>
       </c>
       <c r="P302" s="3" t="n">
-        <v>46042</v>
+        <v>46062</v>
       </c>
       <c r="Q302" t="inlineStr"/>
       <c r="R302" t="n">
@@ -27137,19 +27185,25 @@
       </c>
       <c r="S302" t="inlineStr"/>
       <c r="T302" s="3" t="n">
-        <v>46042</v>
+        <v>46050</v>
       </c>
       <c r="U302" s="3" t="n">
-        <v>46042</v>
+        <v>46050</v>
       </c>
       <c r="V302" s="3" t="n">
-        <v>46042</v>
+        <v>46062</v>
       </c>
       <c r="W302" t="inlineStr"/>
       <c r="X302" t="inlineStr"/>
-      <c r="Y302" t="inlineStr"/>
-      <c r="Z302" t="inlineStr"/>
-      <c r="AA302" t="inlineStr"/>
+      <c r="Y302" t="n">
+        <v>8493.199000000001</v>
+      </c>
+      <c r="Z302" t="n">
+        <v>7107.17</v>
+      </c>
+      <c r="AA302" t="n">
+        <v>1434.11634</v>
+      </c>
       <c r="AB302" t="inlineStr">
         <is>
           <t>CASCO</t>
@@ -27158,7 +27212,7 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -27172,17 +27226,17 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-6</t>
+          <t>GP/99-126-CA-PI-3</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>5016861</t>
+          <t>5017083</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>LIMPIEZA</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -27192,44 +27246,62 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>SEGURIDAD INDUSTRIAL</t>
+          <t>Limpieza de sentina</t>
         </is>
       </c>
       <c r="I303" t="n">
-        <v>0</v>
+        <v>911.79</v>
       </c>
       <c r="J303" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>2060671352</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>MULTISERVICIOS KALEB S.A.C.</t>
+        </is>
+      </c>
+      <c r="M303" t="n">
+        <v>30019875</v>
+      </c>
       <c r="N303" s="3" t="n">
-        <v>46028</v>
+        <v>46039</v>
       </c>
       <c r="O303" s="3" t="n">
-        <v>46028</v>
-      </c>
-      <c r="P303" t="inlineStr"/>
+        <v>46048</v>
+      </c>
+      <c r="P303" s="3" t="n">
+        <v>46062</v>
+      </c>
       <c r="Q303" t="inlineStr"/>
       <c r="R303" t="n">
         <v>0</v>
       </c>
       <c r="S303" t="inlineStr"/>
       <c r="T303" s="3" t="n">
-        <v>46028</v>
+        <v>46039</v>
       </c>
       <c r="U303" s="3" t="n">
-        <v>46029</v>
-      </c>
-      <c r="V303" t="inlineStr"/>
+        <v>46039</v>
+      </c>
+      <c r="V303" s="3" t="n">
+        <v>46062</v>
+      </c>
       <c r="W303" t="inlineStr"/>
       <c r="X303" t="inlineStr"/>
-      <c r="Y303" t="inlineStr"/>
-      <c r="Z303" t="inlineStr"/>
-      <c r="AA303" t="inlineStr"/>
+      <c r="Y303" t="n">
+        <v>130.6</v>
+      </c>
+      <c r="Z303" t="n">
+        <v>130.6</v>
+      </c>
+      <c r="AA303" t="n">
+        <v>0</v>
+      </c>
       <c r="AB303" t="inlineStr">
         <is>
           <t>CASCO</t>
@@ -27238,7 +27310,7 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -27252,17 +27324,17 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-6</t>
+          <t>GP/99-126-CA-PI-3</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>5016861</t>
+          <t>5017083</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>LIMPIEZA</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -27272,39 +27344,51 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>LIMPIEZA DE PATIO</t>
+          <t>Limpieza de lazareto y bodegas</t>
         </is>
       </c>
       <c r="I304" t="n">
-        <v>0</v>
+        <v>464.87</v>
       </c>
       <c r="J304" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>2060671352</v>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>MULTISERVICIOS KALEB S.A.C.</t>
+        </is>
+      </c>
+      <c r="M304" t="n">
+        <v>30019875</v>
+      </c>
       <c r="N304" s="3" t="n">
-        <v>46028</v>
+        <v>46048</v>
       </c>
       <c r="O304" s="3" t="n">
-        <v>46028</v>
-      </c>
-      <c r="P304" t="inlineStr"/>
+        <v>46048</v>
+      </c>
+      <c r="P304" s="3" t="n">
+        <v>46062</v>
+      </c>
       <c r="Q304" t="inlineStr"/>
       <c r="R304" t="n">
         <v>0</v>
       </c>
       <c r="S304" t="inlineStr"/>
       <c r="T304" s="3" t="n">
-        <v>46028</v>
+        <v>46062</v>
       </c>
       <c r="U304" s="3" t="n">
-        <v>46029</v>
-      </c>
-      <c r="V304" t="inlineStr"/>
+        <v>46062</v>
+      </c>
+      <c r="V304" s="3" t="n">
+        <v>46062</v>
+      </c>
       <c r="W304" t="inlineStr"/>
       <c r="X304" t="inlineStr"/>
       <c r="Y304" t="inlineStr"/>
@@ -27318,7 +27402,7 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -27332,17 +27416,17 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-6</t>
+          <t>GP/99-126-CA-PI-3</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>5016861</t>
+          <t>5017083</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>LIMPIEZA</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
@@ -27352,39 +27436,51 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>DISPOSICION DE RESIDUOS LIQUIDOS</t>
+          <t>Limpieza de túnel de propulsión</t>
         </is>
       </c>
       <c r="I305" t="n">
-        <v>0</v>
+        <v>691.6799999999999</v>
       </c>
       <c r="J305" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>2060671352</v>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>MULTISERVICIOS KALEB S.A.C.</t>
+        </is>
+      </c>
+      <c r="M305" t="n">
+        <v>30019875</v>
+      </c>
       <c r="N305" s="3" t="n">
-        <v>46028</v>
+        <v>46043</v>
       </c>
       <c r="O305" s="3" t="n">
-        <v>46028</v>
-      </c>
-      <c r="P305" t="inlineStr"/>
+        <v>46043</v>
+      </c>
+      <c r="P305" s="3" t="n">
+        <v>46062</v>
+      </c>
       <c r="Q305" t="inlineStr"/>
       <c r="R305" t="n">
         <v>0</v>
       </c>
       <c r="S305" t="inlineStr"/>
       <c r="T305" s="3" t="n">
-        <v>46028</v>
+        <v>46062</v>
       </c>
       <c r="U305" s="3" t="n">
-        <v>46029</v>
-      </c>
-      <c r="V305" t="inlineStr"/>
+        <v>46062</v>
+      </c>
+      <c r="V305" s="3" t="n">
+        <v>46062</v>
+      </c>
       <c r="W305" t="inlineStr"/>
       <c r="X305" t="inlineStr"/>
       <c r="Y305" t="inlineStr"/>
@@ -27398,7 +27494,7 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -27412,17 +27508,17 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-6</t>
+          <t>GP/99-126-CA-PI-3</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>5016861</t>
+          <t>5017083</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>LIMPIEZA</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -27432,39 +27528,51 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>DISPOSICION DE RESIDUOS SOLIDOS</t>
+          <t>Limpieza de tq petróleo</t>
         </is>
       </c>
       <c r="I306" t="n">
-        <v>0</v>
+        <v>424.44</v>
       </c>
       <c r="J306" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>2060671352</v>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>MULTISERVICIOS KALEB S.A.C.</t>
+        </is>
+      </c>
+      <c r="M306" t="n">
+        <v>30019875</v>
+      </c>
       <c r="N306" s="3" t="n">
-        <v>46028</v>
+        <v>46043</v>
       </c>
       <c r="O306" s="3" t="n">
-        <v>46028</v>
-      </c>
-      <c r="P306" t="inlineStr"/>
+        <v>46043</v>
+      </c>
+      <c r="P306" s="3" t="n">
+        <v>46062</v>
+      </c>
       <c r="Q306" t="inlineStr"/>
       <c r="R306" t="n">
         <v>0</v>
       </c>
       <c r="S306" t="inlineStr"/>
       <c r="T306" s="3" t="n">
-        <v>46028</v>
+        <v>46062</v>
       </c>
       <c r="U306" s="3" t="n">
-        <v>46029</v>
-      </c>
-      <c r="V306" t="inlineStr"/>
+        <v>46062</v>
+      </c>
+      <c r="V306" s="3" t="n">
+        <v>46062</v>
+      </c>
       <c r="W306" t="inlineStr"/>
       <c r="X306" t="inlineStr"/>
       <c r="Y306" t="inlineStr"/>
@@ -27478,7 +27586,7 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -27492,17 +27600,17 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-6</t>
+          <t>GP/99-126-CA-PI-3</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>5016861</t>
+          <t>5017083</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>LIMPIEZA</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -27512,40 +27620,50 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>SERVICIO DE GRUA</t>
+          <t>Evacuación de refrigerante</t>
         </is>
       </c>
       <c r="I307" t="n">
-        <v>0</v>
+        <v>426.7</v>
       </c>
       <c r="J307" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>2060671352</v>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>MULTISERVICIOS KALEB S.A.C.</t>
+        </is>
+      </c>
+      <c r="M307" t="n">
+        <v>30019875</v>
+      </c>
       <c r="N307" s="3" t="n">
-        <v>46028</v>
+        <v>46044</v>
       </c>
       <c r="O307" s="3" t="n">
-        <v>46028</v>
-      </c>
-      <c r="P307" t="inlineStr"/>
+        <v>46045</v>
+      </c>
+      <c r="P307" s="3" t="n">
+        <v>46062</v>
+      </c>
       <c r="Q307" t="inlineStr"/>
       <c r="R307" t="n">
         <v>0</v>
       </c>
       <c r="S307" t="inlineStr"/>
       <c r="T307" s="3" t="n">
-        <v>46028</v>
+        <v>46062</v>
       </c>
       <c r="U307" s="3" t="n">
-        <v>46029</v>
+        <v>46062</v>
       </c>
       <c r="V307" s="3" t="n">
-        <v>46060</v>
+        <v>46062</v>
       </c>
       <c r="W307" t="inlineStr"/>
       <c r="X307" t="inlineStr"/>
@@ -27560,7 +27678,7 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -27574,17 +27692,17 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-6</t>
+          <t>GP/99-126-CA-PI-3</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>5016861</t>
+          <t>5017083</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>LIMPIEZA</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -27594,41 +27712,51 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Presupuesto evac resd</t>
+          <t>Trasvase de residuos oleosos</t>
         </is>
       </c>
       <c r="I308" t="n">
-        <v>5000</v>
+        <v>213.35</v>
       </c>
       <c r="J308" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>2060671352</v>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>MULTISERVICIOS KALEB S.A.C.</t>
+        </is>
+      </c>
       <c r="M308" t="n">
-        <v>30019713</v>
+        <v>30019875</v>
       </c>
       <c r="N308" s="3" t="n">
-        <v>46028</v>
+        <v>46048</v>
       </c>
       <c r="O308" s="3" t="n">
-        <v>46028</v>
-      </c>
-      <c r="P308" t="inlineStr"/>
+        <v>46048</v>
+      </c>
+      <c r="P308" s="3" t="n">
+        <v>46062</v>
+      </c>
       <c r="Q308" t="inlineStr"/>
       <c r="R308" t="n">
         <v>0</v>
       </c>
       <c r="S308" t="inlineStr"/>
       <c r="T308" s="3" t="n">
-        <v>46029</v>
+        <v>46062</v>
       </c>
       <c r="U308" s="3" t="n">
-        <v>46029</v>
-      </c>
-      <c r="V308" t="inlineStr"/>
+        <v>46062</v>
+      </c>
+      <c r="V308" s="3" t="n">
+        <v>46062</v>
+      </c>
       <c r="W308" t="inlineStr"/>
       <c r="X308" t="inlineStr"/>
       <c r="Y308" t="inlineStr"/>
@@ -27642,7 +27770,7 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -27671,24 +27799,30 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>0070</t>
+          <t>0140</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Presupuesto limpieza de patio</t>
+          <t xml:space="preserve"> Servicio de montacarga semana 5</t>
         </is>
       </c>
       <c r="I309" t="n">
-        <v>5000</v>
+        <v>3450</v>
       </c>
       <c r="J309" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>2053203078</v>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>TRANSGRUAS JHONDAVIS S.A.C.</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>30019713</v>
       </c>
@@ -27698,19 +27832,23 @@
       <c r="O309" s="3" t="n">
         <v>46028</v>
       </c>
-      <c r="P309" t="inlineStr"/>
+      <c r="P309" s="3" t="n">
+        <v>46062</v>
+      </c>
       <c r="Q309" t="inlineStr"/>
       <c r="R309" t="n">
         <v>0</v>
       </c>
       <c r="S309" t="inlineStr"/>
       <c r="T309" s="3" t="n">
-        <v>46029</v>
+        <v>46060</v>
       </c>
       <c r="U309" s="3" t="n">
-        <v>46029</v>
-      </c>
-      <c r="V309" t="inlineStr"/>
+        <v>46060</v>
+      </c>
+      <c r="V309" s="3" t="n">
+        <v>46060</v>
+      </c>
       <c r="W309" t="inlineStr"/>
       <c r="X309" t="inlineStr"/>
       <c r="Y309" t="inlineStr"/>
@@ -27724,7 +27862,7 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -27753,24 +27891,30 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>0080</t>
+          <t>0130</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Presupuesto grua</t>
+          <t>Evacuación desmonte y basura</t>
         </is>
       </c>
       <c r="I310" t="n">
-        <v>11000</v>
+        <v>1575</v>
       </c>
       <c r="J310" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>2051778677</v>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>MANNA S.A.C.</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>30019713</v>
       </c>
@@ -27780,19 +27924,23 @@
       <c r="O310" s="3" t="n">
         <v>46028</v>
       </c>
-      <c r="P310" t="inlineStr"/>
+      <c r="P310" s="3" t="n">
+        <v>46062</v>
+      </c>
       <c r="Q310" t="inlineStr"/>
       <c r="R310" t="n">
         <v>0</v>
       </c>
       <c r="S310" t="inlineStr"/>
       <c r="T310" s="3" t="n">
-        <v>46029</v>
+        <v>46060</v>
       </c>
       <c r="U310" s="3" t="n">
-        <v>46029</v>
-      </c>
-      <c r="V310" t="inlineStr"/>
+        <v>46060</v>
+      </c>
+      <c r="V310" s="3" t="n">
+        <v>46060</v>
+      </c>
       <c r="W310" t="inlineStr"/>
       <c r="X310" t="inlineStr"/>
       <c r="Y310" t="inlineStr"/>
@@ -27806,7 +27954,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -27868,7 +28016,9 @@
       <c r="O311" s="3" t="n">
         <v>46028</v>
       </c>
-      <c r="P311" t="inlineStr"/>
+      <c r="P311" s="3" t="n">
+        <v>46062</v>
+      </c>
       <c r="Q311" t="inlineStr"/>
       <c r="R311" t="n">
         <v>0</v>
@@ -27896,7 +28046,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -27910,31 +28060,31 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-6</t>
+          <t>GP/99-126-SA-PI</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>5016861</t>
+          <t>5017267</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>MISCELANEOS</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>0130</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Evacuación desmonte y basura</t>
+          <t>Aren. Pint. Tub, Valv, Carrete (MANNA)</t>
         </is>
       </c>
       <c r="I312" t="n">
-        <v>1575</v>
+        <v>1900</v>
       </c>
       <c r="J312" t="inlineStr">
         <is>
@@ -27950,28 +28100,30 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>30019713</v>
+        <v>30020171</v>
       </c>
       <c r="N312" s="3" t="n">
-        <v>46028</v>
+        <v>46042</v>
       </c>
       <c r="O312" s="3" t="n">
-        <v>46028</v>
-      </c>
-      <c r="P312" t="inlineStr"/>
+        <v>46062</v>
+      </c>
+      <c r="P312" s="3" t="n">
+        <v>46062</v>
+      </c>
       <c r="Q312" t="inlineStr"/>
       <c r="R312" t="n">
         <v>0</v>
       </c>
       <c r="S312" t="inlineStr"/>
       <c r="T312" s="3" t="n">
-        <v>46060</v>
+        <v>46062</v>
       </c>
       <c r="U312" s="3" t="n">
-        <v>46060</v>
+        <v>46062</v>
       </c>
       <c r="V312" s="3" t="n">
-        <v>46060</v>
+        <v>46062</v>
       </c>
       <c r="W312" t="inlineStr"/>
       <c r="X312" t="inlineStr"/>
@@ -27980,13 +28132,13 @@
       <c r="AA312" t="inlineStr"/>
       <c r="AB312" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>SISTEMAS AUXILIARES</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -28000,31 +28152,31 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-6</t>
+          <t>GP/99-126-SA-PI</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>5016861</t>
+          <t>5017267</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>OTROS SERVICIOS INTERNOS</t>
+          <t>MISCELANEOS</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>0140</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Servicio de montacarga semana 5</t>
+          <t>Aren. Pint. Ejes, Sist Gob, Pala timon</t>
         </is>
       </c>
       <c r="I313" t="n">
-        <v>3450</v>
+        <v>304.84</v>
       </c>
       <c r="J313" t="inlineStr">
         <is>
@@ -28032,36 +28184,38 @@
         </is>
       </c>
       <c r="K313" t="n">
-        <v>2053203078</v>
+        <v>2051778677</v>
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>TRANSGRUAS JHONDAVIS S.A.C.</t>
+          <t>MANNA S.A.C.</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>30019713</v>
+        <v>30020171</v>
       </c>
       <c r="N313" s="3" t="n">
-        <v>46028</v>
+        <v>46042</v>
       </c>
       <c r="O313" s="3" t="n">
-        <v>46028</v>
-      </c>
-      <c r="P313" t="inlineStr"/>
+        <v>46044</v>
+      </c>
+      <c r="P313" s="3" t="n">
+        <v>46062</v>
+      </c>
       <c r="Q313" t="inlineStr"/>
       <c r="R313" t="n">
         <v>0</v>
       </c>
       <c r="S313" t="inlineStr"/>
       <c r="T313" s="3" t="n">
-        <v>46060</v>
+        <v>46062</v>
       </c>
       <c r="U313" s="3" t="n">
-        <v>46060</v>
+        <v>46062</v>
       </c>
       <c r="V313" s="3" t="n">
-        <v>46060</v>
+        <v>46062</v>
       </c>
       <c r="W313" t="inlineStr"/>
       <c r="X313" t="inlineStr"/>
@@ -28070,13 +28224,13 @@
       <c r="AA313" t="inlineStr"/>
       <c r="AB313" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>SISTEMAS AUXILIARES</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -28090,31 +28244,31 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>GP/99-126-MO-PI-2</t>
+          <t>GP/99-126-SA-PI</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>5016868</t>
+          <t>5017267</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>PROTECCION CATODICA</t>
+          <t>MISCELANEOS</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Cambio de ánodos de zinc</t>
+          <t>Aren.Pint. Cad y ancla, pescant ppal,aux</t>
         </is>
       </c>
       <c r="I314" t="n">
-        <v>1696.2</v>
+        <v>925</v>
       </c>
       <c r="J314" t="inlineStr">
         <is>
@@ -28122,24 +28276,24 @@
         </is>
       </c>
       <c r="K314" t="n">
-        <v>2053201679</v>
+        <v>2051778677</v>
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>MULTISERVICIOS KYP S.A.C.</t>
+          <t>MANNA S.A.C.</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>30019714</v>
+        <v>30020171</v>
       </c>
       <c r="N314" s="3" t="n">
-        <v>46039</v>
+        <v>46042</v>
       </c>
       <c r="O314" s="3" t="n">
-        <v>46101</v>
+        <v>46044</v>
       </c>
       <c r="P314" s="3" t="n">
-        <v>46043</v>
+        <v>46062</v>
       </c>
       <c r="Q314" t="inlineStr"/>
       <c r="R314" t="n">
@@ -28147,34 +28301,28 @@
       </c>
       <c r="S314" t="inlineStr"/>
       <c r="T314" s="3" t="n">
-        <v>46029</v>
+        <v>46062</v>
       </c>
       <c r="U314" s="3" t="n">
-        <v>46029</v>
+        <v>46062</v>
       </c>
       <c r="V314" s="3" t="n">
-        <v>46043</v>
+        <v>46062</v>
       </c>
       <c r="W314" t="inlineStr"/>
       <c r="X314" t="inlineStr"/>
-      <c r="Y314" t="n">
-        <v>345.115</v>
-      </c>
-      <c r="Z314" t="n">
-        <v>243.73</v>
-      </c>
-      <c r="AA314" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y314" t="inlineStr"/>
+      <c r="Z314" t="inlineStr"/>
+      <c r="AA314" t="inlineStr"/>
       <c r="AB314" t="inlineStr">
         <is>
-          <t>OPEX</t>
+          <t>SISTEMAS AUXILIARES</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -28188,61 +28336,71 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>GP/99-126-MO-PI-2</t>
+          <t>GP/99-126-CA-PI-5</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>5016868</t>
+          <t>5017268</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>PROTECCION CATODICA</t>
+          <t>MISCELANEOS</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Confección de placa de ánodo de zinc</t>
+          <t>Aren. Pint. PL, PLT, Pinzote, barraganet</t>
         </is>
       </c>
       <c r="I315" t="n">
-        <v>400</v>
+        <v>5568.57</v>
       </c>
       <c r="J315" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>2051778677</v>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>MANNA S.A.C.</t>
+        </is>
+      </c>
       <c r="M315" t="n">
-        <v>30019714</v>
+        <v>30020172</v>
       </c>
       <c r="N315" s="3" t="n">
-        <v>46059</v>
+        <v>46045</v>
       </c>
       <c r="O315" s="3" t="n">
-        <v>46059</v>
-      </c>
-      <c r="P315" t="inlineStr"/>
+        <v>46062</v>
+      </c>
+      <c r="P315" s="3" t="n">
+        <v>46062</v>
+      </c>
       <c r="Q315" t="inlineStr"/>
       <c r="R315" t="n">
         <v>0</v>
       </c>
       <c r="S315" t="inlineStr"/>
       <c r="T315" s="3" t="n">
-        <v>46059</v>
+        <v>46057</v>
       </c>
       <c r="U315" s="3" t="n">
-        <v>46059</v>
-      </c>
-      <c r="V315" t="inlineStr"/>
+        <v>46062</v>
+      </c>
+      <c r="V315" s="3" t="n">
+        <v>46062</v>
+      </c>
       <c r="W315" t="inlineStr"/>
       <c r="X315" t="inlineStr"/>
       <c r="Y315" t="inlineStr"/>
@@ -28250,13 +28408,13 @@
       <c r="AA315" t="inlineStr"/>
       <c r="AB315" t="inlineStr">
         <is>
-          <t>OPEX</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -28270,31 +28428,31 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>GP/99-126-MO-PI-2</t>
+          <t>GP/99-126-CA-PI-4</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>5016869</t>
+          <t>5017116</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>REJILLA TOMA DE MAR</t>
+          <t>ALBAÑILERIA</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0040</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Desm/mont rejilla toma de mar</t>
+          <t>Remoción de lastre MANNA</t>
         </is>
       </c>
       <c r="I316" t="n">
-        <v>156</v>
+        <v>7747.87</v>
       </c>
       <c r="J316" t="inlineStr">
         <is>
@@ -28302,24 +28460,24 @@
         </is>
       </c>
       <c r="K316" t="n">
-        <v>2053201679</v>
+        <v>2051778677</v>
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>MULTISERVICIOS KYP S.A.C.</t>
+          <t>MANNA S.A.C.</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>30019715</v>
+        <v>30019894</v>
       </c>
       <c r="N316" s="3" t="n">
-        <v>46039</v>
+        <v>46041</v>
       </c>
       <c r="O316" s="3" t="n">
-        <v>46101</v>
+        <v>46048</v>
       </c>
       <c r="P316" s="3" t="n">
-        <v>46043</v>
+        <v>46059</v>
       </c>
       <c r="Q316" t="inlineStr"/>
       <c r="R316" t="n">
@@ -28327,13 +28485,13 @@
       </c>
       <c r="S316" t="inlineStr"/>
       <c r="T316" s="3" t="n">
-        <v>46029</v>
+        <v>46057</v>
       </c>
       <c r="U316" s="3" t="n">
-        <v>46029</v>
+        <v>46057</v>
       </c>
       <c r="V316" s="3" t="n">
-        <v>46043</v>
+        <v>46057</v>
       </c>
       <c r="W316" t="inlineStr"/>
       <c r="X316" t="inlineStr"/>
@@ -28342,13 +28500,13 @@
       <c r="AA316" t="inlineStr"/>
       <c r="AB316" t="inlineStr">
         <is>
-          <t>OPEX</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -28362,72 +28520,76 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-1</t>
+          <t>GP/99-126-CA-PI-4</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>5016870</t>
+          <t>5017116</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>ALBAÑILERIA</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Cambio de plancha pique proa</t>
+          <t>Evacuación de lastre</t>
         </is>
       </c>
       <c r="I317" t="n">
-        <v>13500</v>
+        <v>1634.88</v>
       </c>
       <c r="J317" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>2056921109</v>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>EMPRESA DE SERVICIOS MOBYDICK S.A.C</t>
+        </is>
+      </c>
       <c r="M317" t="n">
-        <v>30019716</v>
+        <v>30019894</v>
       </c>
       <c r="N317" s="3" t="n">
-        <v>46028</v>
+        <v>46043</v>
       </c>
       <c r="O317" s="3" t="n">
-        <v>46028</v>
-      </c>
-      <c r="P317" t="inlineStr"/>
+        <v>46046</v>
+      </c>
+      <c r="P317" s="3" t="n">
+        <v>46056</v>
+      </c>
       <c r="Q317" t="inlineStr"/>
       <c r="R317" t="n">
         <v>0</v>
       </c>
       <c r="S317" t="inlineStr"/>
       <c r="T317" s="3" t="n">
-        <v>46029</v>
+        <v>46056</v>
       </c>
       <c r="U317" s="3" t="n">
-        <v>46029</v>
-      </c>
-      <c r="V317" t="inlineStr"/>
+        <v>46056</v>
+      </c>
+      <c r="V317" s="3" t="n">
+        <v>46056</v>
+      </c>
       <c r="W317" t="inlineStr"/>
       <c r="X317" t="inlineStr"/>
-      <c r="Y317" t="n">
-        <v>5254.059999999999</v>
-      </c>
-      <c r="Z317" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA317" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y317" t="inlineStr"/>
+      <c r="Z317" t="inlineStr"/>
+      <c r="AA317" t="inlineStr"/>
       <c r="AB317" t="inlineStr">
         <is>
           <t>CASCO</t>
@@ -28436,7 +28598,7 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -28450,81 +28612,87 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-1</t>
+          <t>GP/99-126-MO-PI-2</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>5016870</t>
+          <t>5017240</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>TALLER EXTERNO</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Cambio de plancha en rampa y mandil popa</t>
+          <t>Serv plegado defensa de red y desag tub</t>
         </is>
       </c>
       <c r="I318" t="n">
-        <v>13500</v>
+        <v>438.05</v>
       </c>
       <c r="J318" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>2028255578</v>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>ESTRUCTURAS METALICAS INDUSTRIALES</t>
+        </is>
+      </c>
       <c r="M318" t="n">
-        <v>30019716</v>
+        <v>30020041</v>
       </c>
       <c r="N318" s="3" t="n">
-        <v>46037</v>
+        <v>46049</v>
       </c>
       <c r="O318" s="3" t="n">
-        <v>46037</v>
-      </c>
-      <c r="P318" t="inlineStr"/>
-      <c r="Q318" t="inlineStr"/>
+        <v>46056</v>
+      </c>
+      <c r="P318" s="3" t="n">
+        <v>46056</v>
+      </c>
+      <c r="Q318" t="n">
+        <v>5060100184</v>
+      </c>
       <c r="R318" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="S318" t="inlineStr"/>
       <c r="T318" s="3" t="n">
-        <v>46037</v>
+        <v>46056</v>
       </c>
       <c r="U318" s="3" t="n">
-        <v>46037</v>
-      </c>
-      <c r="V318" t="inlineStr"/>
+        <v>46056</v>
+      </c>
+      <c r="V318" s="3" t="n">
+        <v>46056</v>
+      </c>
       <c r="W318" t="inlineStr"/>
       <c r="X318" t="inlineStr"/>
-      <c r="Y318" t="n">
-        <v>12759.714</v>
-      </c>
-      <c r="Z318" t="n">
-        <v>10456.26</v>
-      </c>
-      <c r="AA318" t="n">
-        <v>2272.98603</v>
-      </c>
+      <c r="Y318" t="inlineStr"/>
+      <c r="Z318" t="inlineStr"/>
+      <c r="AA318" t="inlineStr"/>
       <c r="AB318" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>OPEX</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -28538,61 +28706,71 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-1</t>
+          <t>GP/99-126-CA-PI-6</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>5016870</t>
+          <t>5016861</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>0030</t>
+          <t>0110</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Cambio de plancha mamp caseta/puente</t>
+          <t>Limpieza de Carril sem 4</t>
         </is>
       </c>
       <c r="I319" t="n">
-        <v>21600</v>
+        <v>684</v>
       </c>
       <c r="J319" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>2060671352</v>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>MULTISERVICIOS KALEB S.A.C.</t>
+        </is>
+      </c>
       <c r="M319" t="n">
-        <v>30019716</v>
+        <v>30019713</v>
       </c>
       <c r="N319" s="3" t="n">
-        <v>46051</v>
+        <v>46028</v>
       </c>
       <c r="O319" s="3" t="n">
-        <v>46051</v>
-      </c>
-      <c r="P319" t="inlineStr"/>
+        <v>46028</v>
+      </c>
+      <c r="P319" s="3" t="n">
+        <v>46055</v>
+      </c>
       <c r="Q319" t="inlineStr"/>
       <c r="R319" t="n">
         <v>0</v>
       </c>
       <c r="S319" t="inlineStr"/>
       <c r="T319" s="3" t="n">
-        <v>46051</v>
+        <v>46049</v>
       </c>
       <c r="U319" s="3" t="n">
-        <v>46051</v>
-      </c>
-      <c r="V319" t="inlineStr"/>
+        <v>46049</v>
+      </c>
+      <c r="V319" s="3" t="n">
+        <v>46049</v>
+      </c>
       <c r="W319" t="inlineStr"/>
       <c r="X319" t="inlineStr"/>
       <c r="Y319" t="inlineStr"/>
@@ -28606,7 +28784,7 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -28620,72 +28798,76 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-1</t>
+          <t>GP/99-126-CA-PI-5</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>5016870</t>
+          <t>5017117</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>LIMPIEZA E HIDROLAVADO</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>0040</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Cambio de plancha casco fondo</t>
+          <t>Hidrolavado de Casco O. Viva (368.85m2)</t>
         </is>
       </c>
       <c r="I320" t="n">
-        <v>13500</v>
+        <v>848.36</v>
       </c>
       <c r="J320" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>2051778677</v>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>MANNA S.A.C.</t>
+        </is>
+      </c>
       <c r="M320" t="n">
-        <v>30019716</v>
+        <v>30019895</v>
       </c>
       <c r="N320" s="3" t="n">
-        <v>46059</v>
+        <v>46037</v>
       </c>
       <c r="O320" s="3" t="n">
-        <v>46059</v>
-      </c>
-      <c r="P320" t="inlineStr"/>
+        <v>46042</v>
+      </c>
+      <c r="P320" s="3" t="n">
+        <v>46055</v>
+      </c>
       <c r="Q320" t="inlineStr"/>
       <c r="R320" t="n">
         <v>0</v>
       </c>
       <c r="S320" t="inlineStr"/>
       <c r="T320" s="3" t="n">
-        <v>46059</v>
+        <v>46050</v>
       </c>
       <c r="U320" s="3" t="n">
-        <v>46059</v>
-      </c>
-      <c r="V320" t="inlineStr"/>
+        <v>46055</v>
+      </c>
+      <c r="V320" s="3" t="n">
+        <v>46050</v>
+      </c>
       <c r="W320" t="inlineStr"/>
       <c r="X320" t="inlineStr"/>
-      <c r="Y320" t="n">
-        <v>2210.045</v>
-      </c>
-      <c r="Z320" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA320" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y320" t="inlineStr"/>
+      <c r="Z320" t="inlineStr"/>
+      <c r="AA320" t="inlineStr"/>
       <c r="AB320" t="inlineStr">
         <is>
           <t>CASCO</t>
@@ -28694,7 +28876,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -28708,72 +28890,76 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-1</t>
+          <t>GP/99-126-CA-PI-5</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>5016870</t>
+          <t>5017117</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>LIMPIEZA E HIDROLAVADO</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>0050</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Cambio de plancha casco lateral</t>
+          <t>Limp. de Casco fondo-Rasqueteo(55.33m2)</t>
         </is>
       </c>
       <c r="I321" t="n">
-        <v>13500</v>
+        <v>88.53</v>
       </c>
       <c r="J321" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>2051778677</v>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>MANNA S.A.C.</t>
+        </is>
+      </c>
       <c r="M321" t="n">
-        <v>30019716</v>
+        <v>30019895</v>
       </c>
       <c r="N321" s="3" t="n">
-        <v>46059</v>
+        <v>46037</v>
       </c>
       <c r="O321" s="3" t="n">
-        <v>46059</v>
-      </c>
-      <c r="P321" t="inlineStr"/>
+        <v>46042</v>
+      </c>
+      <c r="P321" s="3" t="n">
+        <v>46055</v>
+      </c>
       <c r="Q321" t="inlineStr"/>
       <c r="R321" t="n">
         <v>0</v>
       </c>
       <c r="S321" t="inlineStr"/>
       <c r="T321" s="3" t="n">
-        <v>46059</v>
+        <v>46050</v>
       </c>
       <c r="U321" s="3" t="n">
-        <v>46059</v>
-      </c>
-      <c r="V321" t="inlineStr"/>
+        <v>46055</v>
+      </c>
+      <c r="V321" s="3" t="n">
+        <v>46050</v>
+      </c>
       <c r="W321" t="inlineStr"/>
       <c r="X321" t="inlineStr"/>
-      <c r="Y321" t="n">
-        <v>24059.41</v>
-      </c>
-      <c r="Z321" t="n">
-        <v>18925.32</v>
-      </c>
-      <c r="AA321" t="n">
-        <v>5425.92</v>
-      </c>
+      <c r="Y321" t="inlineStr"/>
+      <c r="Z321" t="inlineStr"/>
+      <c r="AA321" t="inlineStr"/>
       <c r="AB321" t="inlineStr">
         <is>
           <t>CASCO</t>
@@ -28782,7 +28968,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -28796,31 +28982,31 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>GP/99-126-MO-PI-2</t>
+          <t>GP/99-126-CA-PI-6</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>5016871</t>
+          <t>5016861</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>FUNDA GUARDACABO</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0100</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Remc/inst de funda guardacabo</t>
+          <t xml:space="preserve"> Servicio de grua</t>
         </is>
       </c>
       <c r="I322" t="n">
-        <v>213.35</v>
+        <v>6900</v>
       </c>
       <c r="J322" t="inlineStr">
         <is>
@@ -28828,24 +29014,24 @@
         </is>
       </c>
       <c r="K322" t="n">
-        <v>2053201679</v>
+        <v>2053203078</v>
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>MULTISERVICIOS KYP S.A.C.</t>
+          <t>TRANSGRUAS JHONDAVIS S.A.C.</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>30019717</v>
+        <v>30019713</v>
       </c>
       <c r="N322" s="3" t="n">
-        <v>46039</v>
+        <v>46028</v>
       </c>
       <c r="O322" s="3" t="n">
-        <v>46101</v>
+        <v>46028</v>
       </c>
       <c r="P322" s="3" t="n">
-        <v>46043</v>
+        <v>46049</v>
       </c>
       <c r="Q322" t="inlineStr"/>
       <c r="R322" t="n">
@@ -28853,34 +29039,28 @@
       </c>
       <c r="S322" t="inlineStr"/>
       <c r="T322" s="3" t="n">
-        <v>46029</v>
+        <v>46049</v>
       </c>
       <c r="U322" s="3" t="n">
-        <v>46029</v>
+        <v>46049</v>
       </c>
       <c r="V322" s="3" t="n">
-        <v>46043</v>
+        <v>46048</v>
       </c>
       <c r="W322" t="inlineStr"/>
       <c r="X322" t="inlineStr"/>
-      <c r="Y322" t="n">
-        <v>124.265</v>
-      </c>
-      <c r="Z322" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA322" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y322" t="inlineStr"/>
+      <c r="Z322" t="inlineStr"/>
+      <c r="AA322" t="inlineStr"/>
       <c r="AB322" t="inlineStr">
         <is>
-          <t>OPEX</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -28894,81 +29074,91 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>GP/99-126-MO-PI-2</t>
+          <t>GP/99-126-CA-PI-4</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>5016872</t>
+          <t>5017116</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>DEFENSA DE CASCO</t>
+          <t>ALBAÑILERIA</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Relleno soldadura codillo, barra defensa</t>
+          <t>Suministro de sacos x lastre</t>
         </is>
       </c>
       <c r="I323" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="J323" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>2051778677</v>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>MANNA S.A.C.</t>
+        </is>
+      </c>
       <c r="M323" t="n">
-        <v>30019718</v>
+        <v>30019894</v>
       </c>
       <c r="N323" s="3" t="n">
-        <v>46028</v>
+        <v>45978</v>
       </c>
       <c r="O323" s="3" t="n">
-        <v>46028</v>
-      </c>
-      <c r="P323" t="inlineStr"/>
-      <c r="Q323" t="inlineStr"/>
+        <v>46050</v>
+      </c>
+      <c r="P323" s="3" t="n">
+        <v>46049</v>
+      </c>
+      <c r="Q323" t="n">
+        <v>5010254294</v>
+      </c>
       <c r="R323" t="n">
-        <v>0</v>
-      </c>
-      <c r="S323" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="S323" t="n">
+        <v>1002935031</v>
+      </c>
       <c r="T323" s="3" t="n">
-        <v>46029</v>
+        <v>46049</v>
       </c>
       <c r="U323" s="3" t="n">
-        <v>46029</v>
-      </c>
-      <c r="V323" t="inlineStr"/>
+        <v>46049</v>
+      </c>
+      <c r="V323" s="3" t="n">
+        <v>46049</v>
+      </c>
       <c r="W323" t="inlineStr"/>
-      <c r="X323" t="inlineStr"/>
-      <c r="Y323" t="n">
-        <v>161.05</v>
-      </c>
-      <c r="Z323" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA323" t="n">
-        <v>0</v>
-      </c>
+      <c r="X323" t="n">
+        <v>5105833700</v>
+      </c>
+      <c r="Y323" t="inlineStr"/>
+      <c r="Z323" t="inlineStr"/>
+      <c r="AA323" t="inlineStr"/>
       <c r="AB323" t="inlineStr">
         <is>
-          <t>OPEX</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -28987,36 +29177,42 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>5016872</t>
+          <t>5016876</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>DEFENSA DE CASCO</t>
+          <t>ARBOLADURA</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Cambio verduguete</t>
+          <t>Desm/mont plumas</t>
         </is>
       </c>
       <c r="I324" t="n">
-        <v>5200</v>
+        <v>1192.8</v>
       </c>
       <c r="J324" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>2053201679</v>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>MULTISERVICIOS KYP S.A.C.</t>
+        </is>
+      </c>
       <c r="M324" t="n">
-        <v>30019718</v>
+        <v>30019722</v>
       </c>
       <c r="N324" s="3" t="n">
         <v>46028</v>
@@ -29024,10 +29220,14 @@
       <c r="O324" s="3" t="n">
         <v>46028</v>
       </c>
-      <c r="P324" t="inlineStr"/>
-      <c r="Q324" t="inlineStr"/>
+      <c r="P324" s="3" t="n">
+        <v>46043</v>
+      </c>
+      <c r="Q324" t="n">
+        <v>5060100186</v>
+      </c>
       <c r="R324" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S324" t="inlineStr"/>
       <c r="T324" s="3" t="n">
@@ -29036,7 +29236,9 @@
       <c r="U324" s="3" t="n">
         <v>46029</v>
       </c>
-      <c r="V324" t="inlineStr"/>
+      <c r="V324" s="3" t="n">
+        <v>46043</v>
+      </c>
       <c r="W324" t="inlineStr"/>
       <c r="X324" t="inlineStr"/>
       <c r="Y324" t="inlineStr"/>
@@ -29050,7 +29252,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -29069,56 +29271,68 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>5016872</t>
+          <t>5016876</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>DEFENSA DE CASCO</t>
+          <t>ARBOLADURA</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>0030</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Cambio de barras defensa</t>
+          <t>Desm/mont pinzotes</t>
         </is>
       </c>
       <c r="I325" t="n">
-        <v>13200</v>
+        <v>370.5</v>
       </c>
       <c r="J325" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>2053201679</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>MULTISERVICIOS KYP S.A.C.</t>
+        </is>
+      </c>
       <c r="M325" t="n">
-        <v>30019718</v>
+        <v>30019722</v>
       </c>
       <c r="N325" s="3" t="n">
-        <v>46059</v>
+        <v>46039</v>
       </c>
       <c r="O325" s="3" t="n">
-        <v>46059</v>
-      </c>
-      <c r="P325" t="inlineStr"/>
-      <c r="Q325" t="inlineStr"/>
+        <v>46101</v>
+      </c>
+      <c r="P325" s="3" t="n">
+        <v>46043</v>
+      </c>
+      <c r="Q325" t="n">
+        <v>5060100186</v>
+      </c>
       <c r="R325" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S325" t="inlineStr"/>
       <c r="T325" s="3" t="n">
-        <v>46059</v>
+        <v>46029</v>
       </c>
       <c r="U325" s="3" t="n">
-        <v>46059</v>
-      </c>
-      <c r="V325" t="inlineStr"/>
+        <v>46029</v>
+      </c>
+      <c r="V325" s="3" t="n">
+        <v>46043</v>
+      </c>
       <c r="W325" t="inlineStr"/>
       <c r="X325" t="inlineStr"/>
       <c r="Y325" t="inlineStr"/>
@@ -29132,7 +29346,7 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -29151,12 +29365,12 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>5016873</t>
+          <t>5017074</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>ADITAMENTOS</t>
+          <t>VENTANAS PARA ARENADO</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
@@ -29166,41 +29380,53 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Cambio de pl aditamentos</t>
+          <t>Apertura/cierre ventanas en pantoque bdg</t>
         </is>
       </c>
       <c r="I326" t="n">
-        <v>10800</v>
+        <v>4013.46</v>
       </c>
       <c r="J326" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>2053201679</v>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>MULTISERVICIOS KYP S.A.C.</t>
+        </is>
+      </c>
       <c r="M326" t="n">
-        <v>30019719</v>
+        <v>30019821</v>
       </c>
       <c r="N326" s="3" t="n">
-        <v>46028</v>
+        <v>46039</v>
       </c>
       <c r="O326" s="3" t="n">
-        <v>46028</v>
-      </c>
-      <c r="P326" t="inlineStr"/>
-      <c r="Q326" t="inlineStr"/>
+        <v>46101</v>
+      </c>
+      <c r="P326" s="3" t="n">
+        <v>46043</v>
+      </c>
+      <c r="Q326" t="n">
+        <v>5060100186</v>
+      </c>
       <c r="R326" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="S326" t="inlineStr"/>
       <c r="T326" s="3" t="n">
-        <v>46029</v>
+        <v>46036</v>
       </c>
       <c r="U326" s="3" t="n">
-        <v>46029</v>
-      </c>
-      <c r="V326" t="inlineStr"/>
+        <v>46036</v>
+      </c>
+      <c r="V326" s="3" t="n">
+        <v>46043</v>
+      </c>
       <c r="W326" t="inlineStr"/>
       <c r="X326" t="inlineStr"/>
       <c r="Y326" t="inlineStr"/>
@@ -29214,7 +29440,7 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -29233,12 +29459,12 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>5016874</t>
+          <t>5016869</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>CADENA Y ANCLA</t>
+          <t>REJILLA TOMA DE MAR</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -29248,32 +29474,42 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Arriado y estibado de cadena</t>
+          <t>Desm/mont rejilla toma de mar</t>
         </is>
       </c>
       <c r="I327" t="n">
-        <v>800</v>
+        <v>156</v>
       </c>
       <c r="J327" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>2053201679</v>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>MULTISERVICIOS KYP S.A.C.</t>
+        </is>
+      </c>
       <c r="M327" t="n">
-        <v>30019720</v>
+        <v>30019715</v>
       </c>
       <c r="N327" s="3" t="n">
-        <v>46028</v>
+        <v>46039</v>
       </c>
       <c r="O327" s="3" t="n">
-        <v>46028</v>
-      </c>
-      <c r="P327" t="inlineStr"/>
-      <c r="Q327" t="inlineStr"/>
+        <v>46101</v>
+      </c>
+      <c r="P327" s="3" t="n">
+        <v>46043</v>
+      </c>
+      <c r="Q327" t="n">
+        <v>5060100186</v>
+      </c>
       <c r="R327" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S327" t="inlineStr"/>
       <c r="T327" s="3" t="n">
@@ -29282,7 +29518,9 @@
       <c r="U327" s="3" t="n">
         <v>46029</v>
       </c>
-      <c r="V327" t="inlineStr"/>
+      <c r="V327" s="3" t="n">
+        <v>46043</v>
+      </c>
       <c r="W327" t="inlineStr"/>
       <c r="X327" t="inlineStr"/>
       <c r="Y327" t="inlineStr"/>
@@ -29315,12 +29553,12 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>5016875</t>
+          <t>5016871</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>PESCANTES</t>
+          <t>FUNDA GUARDACABO</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -29330,11 +29568,11 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Desm/mont pescantes</t>
+          <t>Remc/inst de funda guardacabo</t>
         </is>
       </c>
       <c r="I328" t="n">
-        <v>392</v>
+        <v>213.35</v>
       </c>
       <c r="J328" t="inlineStr">
         <is>
@@ -29350,7 +29588,7 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>30019721</v>
+        <v>30019717</v>
       </c>
       <c r="N328" s="3" t="n">
         <v>46039</v>
@@ -29361,9 +29599,11 @@
       <c r="P328" s="3" t="n">
         <v>46043</v>
       </c>
-      <c r="Q328" t="inlineStr"/>
+      <c r="Q328" t="n">
+        <v>5060100186</v>
+      </c>
       <c r="R328" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S328" t="inlineStr"/>
       <c r="T328" s="3" t="n">
@@ -29377,9 +29617,15 @@
       </c>
       <c r="W328" t="inlineStr"/>
       <c r="X328" t="inlineStr"/>
-      <c r="Y328" t="inlineStr"/>
-      <c r="Z328" t="inlineStr"/>
-      <c r="AA328" t="inlineStr"/>
+      <c r="Y328" t="n">
+        <v>124.265</v>
+      </c>
+      <c r="Z328" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA328" t="n">
+        <v>0</v>
+      </c>
       <c r="AB328" t="inlineStr">
         <is>
           <t>OPEX</t>
@@ -29388,7 +29634,7 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -29417,37 +29663,47 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Reparacion de pescante</t>
+          <t>Desm/mont pescantes</t>
         </is>
       </c>
       <c r="I329" t="n">
-        <v>2000</v>
+        <v>392</v>
       </c>
       <c r="J329" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>2053201679</v>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>MULTISERVICIOS KYP S.A.C.</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>30019721</v>
       </c>
       <c r="N329" s="3" t="n">
-        <v>46028</v>
+        <v>46039</v>
       </c>
       <c r="O329" s="3" t="n">
-        <v>46028</v>
-      </c>
-      <c r="P329" t="inlineStr"/>
-      <c r="Q329" t="inlineStr"/>
+        <v>46101</v>
+      </c>
+      <c r="P329" s="3" t="n">
+        <v>46043</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>5060100186</v>
+      </c>
       <c r="R329" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="S329" t="inlineStr"/>
       <c r="T329" s="3" t="n">
@@ -29456,7 +29712,9 @@
       <c r="U329" s="3" t="n">
         <v>46029</v>
       </c>
-      <c r="V329" t="inlineStr"/>
+      <c r="V329" s="3" t="n">
+        <v>46043</v>
+      </c>
       <c r="W329" t="inlineStr"/>
       <c r="X329" t="inlineStr"/>
       <c r="Y329" t="inlineStr"/>
@@ -29470,7 +29728,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -29489,47 +29747,57 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>5016875</t>
+          <t>5016868</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>PESCANTES</t>
+          <t>PROTECCION CATODICA</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>0030</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Serv maquinado de acce. pescante</t>
+          <t>Cambio de ánodos de zinc</t>
         </is>
       </c>
       <c r="I330" t="n">
-        <v>4260</v>
+        <v>1696.2</v>
       </c>
       <c r="J330" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>2053201679</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>MULTISERVICIOS KYP S.A.C.</t>
+        </is>
+      </c>
       <c r="M330" t="n">
-        <v>30019721</v>
+        <v>30019714</v>
       </c>
       <c r="N330" s="3" t="n">
-        <v>46028</v>
+        <v>46039</v>
       </c>
       <c r="O330" s="3" t="n">
-        <v>46028</v>
-      </c>
-      <c r="P330" t="inlineStr"/>
-      <c r="Q330" t="inlineStr"/>
+        <v>46101</v>
+      </c>
+      <c r="P330" s="3" t="n">
+        <v>46043</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>5060100186</v>
+      </c>
       <c r="R330" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S330" t="inlineStr"/>
       <c r="T330" s="3" t="n">
@@ -29538,12 +29806,20 @@
       <c r="U330" s="3" t="n">
         <v>46029</v>
       </c>
-      <c r="V330" t="inlineStr"/>
+      <c r="V330" s="3" t="n">
+        <v>46043</v>
+      </c>
       <c r="W330" t="inlineStr"/>
       <c r="X330" t="inlineStr"/>
-      <c r="Y330" t="inlineStr"/>
-      <c r="Z330" t="inlineStr"/>
-      <c r="AA330" t="inlineStr"/>
+      <c r="Y330" t="n">
+        <v>345.115</v>
+      </c>
+      <c r="Z330" t="n">
+        <v>243.73</v>
+      </c>
+      <c r="AA330" t="n">
+        <v>0</v>
+      </c>
       <c r="AB330" t="inlineStr">
         <is>
           <t>OPEX</t>
@@ -29552,7 +29828,7 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -29566,31 +29842,31 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>GP/99-126-MO-PI-2</t>
+          <t>GP/99-126-CA-PI-6</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>5016876</t>
+          <t>5016861</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>ARBOLADURA</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0090</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Desm/mont plumas</t>
+          <t>Limpieza de Carril sem 3</t>
         </is>
       </c>
       <c r="I331" t="n">
-        <v>1192.8</v>
+        <v>684</v>
       </c>
       <c r="J331" t="inlineStr">
         <is>
@@ -29598,15 +29874,15 @@
         </is>
       </c>
       <c r="K331" t="n">
-        <v>2053201679</v>
+        <v>2056921109</v>
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>MULTISERVICIOS KYP S.A.C.</t>
+          <t>EMPRESA DE SERVICIOS MOBYDICK S.A.C</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>30019722</v>
+        <v>30019713</v>
       </c>
       <c r="N331" s="3" t="n">
         <v>46028</v>
@@ -29615,7 +29891,7 @@
         <v>46028</v>
       </c>
       <c r="P331" s="3" t="n">
-        <v>46043</v>
+        <v>46042</v>
       </c>
       <c r="Q331" t="inlineStr"/>
       <c r="R331" t="n">
@@ -29623,13 +29899,13 @@
       </c>
       <c r="S331" t="inlineStr"/>
       <c r="T331" s="3" t="n">
-        <v>46029</v>
+        <v>46042</v>
       </c>
       <c r="U331" s="3" t="n">
-        <v>46029</v>
+        <v>46042</v>
       </c>
       <c r="V331" s="3" t="n">
-        <v>46043</v>
+        <v>46042</v>
       </c>
       <c r="W331" t="inlineStr"/>
       <c r="X331" t="inlineStr"/>
@@ -29638,13 +29914,13 @@
       <c r="AA331" t="inlineStr"/>
       <c r="AB331" t="inlineStr">
         <is>
-          <t>OPEX</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -29658,79 +29934,75 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>GP/99-126-MO-PI-2</t>
+          <t>GP/99-126-SA-PI</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>5016876</t>
+          <t>5017138</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>ARBOLADURA</t>
+          <t>SIST ACHIQUE</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Desm/mont pinzotes</t>
+          <t>Desm/confecc/mont tub</t>
         </is>
       </c>
       <c r="I332" t="n">
-        <v>370.5</v>
+        <v>4000</v>
       </c>
       <c r="J332" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K332" t="n">
-        <v>2053201679</v>
-      </c>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>MULTISERVICIOS KYP S.A.C.</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="inlineStr"/>
       <c r="M332" t="n">
-        <v>30019722</v>
+        <v>30019927</v>
       </c>
       <c r="N332" s="3" t="n">
-        <v>46039</v>
+        <v>46048</v>
       </c>
       <c r="O332" s="3" t="n">
-        <v>46101</v>
-      </c>
-      <c r="P332" s="3" t="n">
-        <v>46043</v>
-      </c>
+        <v>46048</v>
+      </c>
+      <c r="P332" t="inlineStr"/>
       <c r="Q332" t="inlineStr"/>
       <c r="R332" t="n">
         <v>0</v>
       </c>
       <c r="S332" t="inlineStr"/>
       <c r="T332" s="3" t="n">
-        <v>46029</v>
+        <v>46048</v>
       </c>
       <c r="U332" s="3" t="n">
-        <v>46029</v>
-      </c>
-      <c r="V332" s="3" t="n">
-        <v>46043</v>
-      </c>
+        <v>46048</v>
+      </c>
+      <c r="V332" t="inlineStr"/>
       <c r="W332" t="inlineStr"/>
       <c r="X332" t="inlineStr"/>
-      <c r="Y332" t="inlineStr"/>
-      <c r="Z332" t="inlineStr"/>
-      <c r="AA332" t="inlineStr"/>
+      <c r="Y332" t="n">
+        <v>13383.96</v>
+      </c>
+      <c r="Z332" t="n">
+        <v>12680.03</v>
+      </c>
+      <c r="AA332" t="n">
+        <v>577.0200000000001</v>
+      </c>
       <c r="AB332" t="inlineStr">
         <is>
-          <t>OPEX</t>
+          <t>SISTEMAS AUXILIARES</t>
         </is>
       </c>
     </row>
@@ -29750,31 +30022,31 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>GP/99-126-MO-PI-2</t>
+          <t>GP/99-126-CA-PI-1</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>5016876</t>
+          <t>5017245</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>ARBOLADURA</t>
+          <t>BODEGA</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>0030</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Serv maquinado pinzote</t>
+          <t>Cambio de mamp en SM - Bdg central</t>
         </is>
       </c>
       <c r="I333" t="n">
-        <v>11210</v>
+        <v>5400</v>
       </c>
       <c r="J333" t="inlineStr">
         <is>
@@ -29784,13 +30056,13 @@
       <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr"/>
       <c r="M333" t="n">
-        <v>30019722</v>
+        <v>30020042</v>
       </c>
       <c r="N333" s="3" t="n">
-        <v>46028</v>
+        <v>46056</v>
       </c>
       <c r="O333" s="3" t="n">
-        <v>46028</v>
+        <v>46056</v>
       </c>
       <c r="P333" t="inlineStr"/>
       <c r="Q333" t="inlineStr"/>
@@ -29799,26 +30071,20 @@
       </c>
       <c r="S333" t="inlineStr"/>
       <c r="T333" s="3" t="n">
-        <v>46029</v>
+        <v>46056</v>
       </c>
       <c r="U333" s="3" t="n">
-        <v>46029</v>
+        <v>46056</v>
       </c>
       <c r="V333" t="inlineStr"/>
       <c r="W333" t="inlineStr"/>
       <c r="X333" t="inlineStr"/>
-      <c r="Y333" t="n">
-        <v>6182.081</v>
-      </c>
-      <c r="Z333" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA333" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y333" t="inlineStr"/>
+      <c r="Z333" t="inlineStr"/>
+      <c r="AA333" t="inlineStr"/>
       <c r="AB333" t="inlineStr">
         <is>
-          <t>OPEX</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
@@ -29838,31 +30104,31 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>GP/99-126-MO-PI-2</t>
+          <t>GP/99-126-CA-PI-1</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>5016876</t>
+          <t>5017245</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>ARBOLADURA</t>
+          <t>BODEGA</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>0040</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Camb alojamiento de tintero</t>
+          <t>Cambio refuerzos en bodegas</t>
         </is>
       </c>
       <c r="I334" t="n">
-        <v>11210</v>
+        <v>8000</v>
       </c>
       <c r="J334" t="inlineStr">
         <is>
@@ -29872,13 +30138,13 @@
       <c r="K334" t="inlineStr"/>
       <c r="L334" t="inlineStr"/>
       <c r="M334" t="n">
-        <v>30019722</v>
+        <v>30020042</v>
       </c>
       <c r="N334" s="3" t="n">
-        <v>46060</v>
+        <v>46056</v>
       </c>
       <c r="O334" s="3" t="n">
-        <v>46060</v>
+        <v>46056</v>
       </c>
       <c r="P334" t="inlineStr"/>
       <c r="Q334" t="inlineStr"/>
@@ -29887,10 +30153,10 @@
       </c>
       <c r="S334" t="inlineStr"/>
       <c r="T334" s="3" t="n">
-        <v>46060</v>
+        <v>46056</v>
       </c>
       <c r="U334" s="3" t="n">
-        <v>46060</v>
+        <v>46056</v>
       </c>
       <c r="V334" t="inlineStr"/>
       <c r="W334" t="inlineStr"/>
@@ -29900,7 +30166,7 @@
       <c r="AA334" t="inlineStr"/>
       <c r="AB334" t="inlineStr">
         <is>
-          <t>OPEX</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
@@ -29920,53 +30186,47 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>GP/99-126-PG-PI</t>
+          <t>GP/99-126-MO-PI-2</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>5016880</t>
+          <t>5016876</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>PROPULSION</t>
+          <t>ARBOLADURA</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Inspección de SP 05</t>
+          <t>Serv maquinado pinzote</t>
         </is>
       </c>
       <c r="I335" t="n">
-        <v>536</v>
+        <v>11210</v>
       </c>
       <c r="J335" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K335" t="n">
-        <v>2044543222</v>
-      </c>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>MULTISERVICIOS Z &amp; R E.I.R.L.</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="inlineStr"/>
       <c r="M335" t="n">
-        <v>30019702</v>
+        <v>30019722</v>
       </c>
       <c r="N335" s="3" t="n">
-        <v>46029</v>
+        <v>46028</v>
       </c>
       <c r="O335" s="3" t="n">
-        <v>46029</v>
+        <v>46028</v>
       </c>
       <c r="P335" t="inlineStr"/>
       <c r="Q335" t="inlineStr"/>
@@ -29980,17 +30240,21 @@
       <c r="U335" s="3" t="n">
         <v>46029</v>
       </c>
-      <c r="V335" s="3" t="n">
-        <v>46049</v>
-      </c>
+      <c r="V335" t="inlineStr"/>
       <c r="W335" t="inlineStr"/>
       <c r="X335" t="inlineStr"/>
-      <c r="Y335" t="inlineStr"/>
-      <c r="Z335" t="inlineStr"/>
-      <c r="AA335" t="inlineStr"/>
+      <c r="Y335" t="n">
+        <v>9817.451000000001</v>
+      </c>
+      <c r="Z335" t="n">
+        <v>9817.440000000001</v>
+      </c>
+      <c r="AA335" t="n">
+        <v>0</v>
+      </c>
       <c r="AB335" t="inlineStr">
         <is>
-          <t>PROPULSION Y GOBIERNO</t>
+          <t>OPEX</t>
         </is>
       </c>
     </row>
@@ -30010,53 +30274,47 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>GP/99-126-PG-PI</t>
+          <t>GP/99-126-MO-PI-2</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>5016880</t>
+          <t>5016876</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>PROPULSION</t>
+          <t>ARBOLADURA</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0040</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Desm/mont de SP 05</t>
+          <t>Camb alojamiento de tintero</t>
         </is>
       </c>
       <c r="I336" t="n">
-        <v>12000</v>
+        <v>11210</v>
       </c>
       <c r="J336" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K336" t="n">
-        <v>2044543222</v>
-      </c>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>MULTISERVICIOS Z &amp; R E.I.R.L.</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="inlineStr"/>
       <c r="M336" t="n">
-        <v>30019702</v>
+        <v>30019722</v>
       </c>
       <c r="N336" s="3" t="n">
-        <v>46029</v>
+        <v>46060</v>
       </c>
       <c r="O336" s="3" t="n">
-        <v>46029</v>
+        <v>46060</v>
       </c>
       <c r="P336" t="inlineStr"/>
       <c r="Q336" t="inlineStr"/>
@@ -30065,10 +30323,10 @@
       </c>
       <c r="S336" t="inlineStr"/>
       <c r="T336" s="3" t="n">
-        <v>46029</v>
+        <v>46060</v>
       </c>
       <c r="U336" s="3" t="n">
-        <v>46029</v>
+        <v>46060</v>
       </c>
       <c r="V336" t="inlineStr"/>
       <c r="W336" t="inlineStr"/>
@@ -30078,7 +30336,7 @@
       <c r="AA336" t="inlineStr"/>
       <c r="AB336" t="inlineStr">
         <is>
-          <t>PROPULSION Y GOBIERNO</t>
+          <t>OPEX</t>
         </is>
       </c>
     </row>
@@ -30098,31 +30356,31 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>GP/99-126-PG-PI</t>
+          <t>GP/99-126-MO-PI-2</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>5016880</t>
+          <t>5017065</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>PROPULSION</t>
+          <t>DEFENSA DE RED</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>0030</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Relleno de puños de ejes</t>
+          <t>Cambio de tambucho protector de tuberías</t>
         </is>
       </c>
       <c r="I337" t="n">
-        <v>16000</v>
+        <v>1800</v>
       </c>
       <c r="J337" t="inlineStr">
         <is>
@@ -30132,13 +30390,13 @@
       <c r="K337" t="inlineStr"/>
       <c r="L337" t="inlineStr"/>
       <c r="M337" t="n">
-        <v>30019702</v>
+        <v>30019843</v>
       </c>
       <c r="N337" s="3" t="n">
-        <v>46029</v>
+        <v>46028</v>
       </c>
       <c r="O337" s="3" t="n">
-        <v>46029</v>
+        <v>46028</v>
       </c>
       <c r="P337" t="inlineStr"/>
       <c r="Q337" t="inlineStr"/>
@@ -30147,10 +30405,10 @@
       </c>
       <c r="S337" t="inlineStr"/>
       <c r="T337" s="3" t="n">
-        <v>46029</v>
+        <v>46036</v>
       </c>
       <c r="U337" s="3" t="n">
-        <v>46029</v>
+        <v>46036</v>
       </c>
       <c r="V337" t="inlineStr"/>
       <c r="W337" t="inlineStr"/>
@@ -30160,7 +30418,7 @@
       <c r="AA337" t="inlineStr"/>
       <c r="AB337" t="inlineStr">
         <is>
-          <t>PROPULSION Y GOBIERNO</t>
+          <t>OPEX</t>
         </is>
       </c>
     </row>
@@ -30180,27 +30438,27 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>GP/99-126-PG-PI</t>
+          <t>GP/99-126-CA-PI-6</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>5016880</t>
+          <t>5016861</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>PROPULSION</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>0040</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Remoción de fibra en ejes</t>
+          <t>SEGURIDAD INDUSTRIAL</t>
         </is>
       </c>
       <c r="I338" t="n">
@@ -30211,22 +30469,14 @@
           <t>PEN</t>
         </is>
       </c>
-      <c r="K338" t="n">
-        <v>2060838820</v>
-      </c>
-      <c r="L338" t="inlineStr">
-        <is>
-          <t>MULTISERVICIOS VASQUEZ &amp; JAV E.I.R.</t>
-        </is>
-      </c>
-      <c r="M338" t="n">
-        <v>30019702</v>
-      </c>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="inlineStr"/>
+      <c r="M338" t="inlineStr"/>
       <c r="N338" s="3" t="n">
-        <v>46043</v>
+        <v>46028</v>
       </c>
       <c r="O338" s="3" t="n">
-        <v>46043</v>
+        <v>46028</v>
       </c>
       <c r="P338" t="inlineStr"/>
       <c r="Q338" t="inlineStr"/>
@@ -30235,10 +30485,10 @@
       </c>
       <c r="S338" t="inlineStr"/>
       <c r="T338" s="3" t="n">
-        <v>46043</v>
+        <v>46028</v>
       </c>
       <c r="U338" s="3" t="n">
-        <v>46043</v>
+        <v>46029</v>
       </c>
       <c r="V338" t="inlineStr"/>
       <c r="W338" t="inlineStr"/>
@@ -30248,7 +30498,7 @@
       <c r="AA338" t="inlineStr"/>
       <c r="AB338" t="inlineStr">
         <is>
-          <t>PROPULSION Y GOBIERNO</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
@@ -30268,31 +30518,31 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>GP/99-126-PG-PI</t>
+          <t>GP/99-126-CA-PI-6</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>5016880</t>
+          <t>5016861</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>PROPULSION</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>0050</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Reparación de SP 05</t>
+          <t>LIMPIEZA DE PATIO</t>
         </is>
       </c>
       <c r="I339" t="n">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="J339" t="inlineStr">
         <is>
@@ -30301,14 +30551,12 @@
       </c>
       <c r="K339" t="inlineStr"/>
       <c r="L339" t="inlineStr"/>
-      <c r="M339" t="n">
-        <v>30019702</v>
-      </c>
+      <c r="M339" t="inlineStr"/>
       <c r="N339" s="3" t="n">
-        <v>46056</v>
+        <v>46028</v>
       </c>
       <c r="O339" s="3" t="n">
-        <v>46056</v>
+        <v>46028</v>
       </c>
       <c r="P339" t="inlineStr"/>
       <c r="Q339" t="inlineStr"/>
@@ -30317,26 +30565,20 @@
       </c>
       <c r="S339" t="inlineStr"/>
       <c r="T339" s="3" t="n">
-        <v>46056</v>
+        <v>46028</v>
       </c>
       <c r="U339" s="3" t="n">
-        <v>46056</v>
+        <v>46029</v>
       </c>
       <c r="V339" t="inlineStr"/>
       <c r="W339" t="inlineStr"/>
       <c r="X339" t="inlineStr"/>
-      <c r="Y339" t="n">
-        <v>17257.581</v>
-      </c>
-      <c r="Z339" t="n">
-        <v>1072.98</v>
-      </c>
-      <c r="AA339" t="n">
-        <v>6.264999999999999</v>
-      </c>
+      <c r="Y339" t="inlineStr"/>
+      <c r="Z339" t="inlineStr"/>
+      <c r="AA339" t="inlineStr"/>
       <c r="AB339" t="inlineStr">
         <is>
-          <t>PROPULSION Y GOBIERNO</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
@@ -30356,53 +30598,45 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>GP/99-126-PG-PI</t>
+          <t>GP/99-126-CA-PI-6</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>5016881</t>
+          <t>5016861</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>GOBIERNO</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Inspección de SG</t>
+          <t>DISPOSICION DE RESIDUOS LIQUIDOS</t>
         </is>
       </c>
       <c r="I340" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="J340" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K340" t="n">
-        <v>2044543222</v>
-      </c>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>MULTISERVICIOS Z &amp; R E.I.R.L.</t>
-        </is>
-      </c>
-      <c r="M340" t="n">
-        <v>30019703</v>
-      </c>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="inlineStr"/>
+      <c r="M340" t="inlineStr"/>
       <c r="N340" s="3" t="n">
-        <v>46029</v>
+        <v>46028</v>
       </c>
       <c r="O340" s="3" t="n">
-        <v>46029</v>
+        <v>46028</v>
       </c>
       <c r="P340" t="inlineStr"/>
       <c r="Q340" t="inlineStr"/>
@@ -30411,7 +30645,7 @@
       </c>
       <c r="S340" t="inlineStr"/>
       <c r="T340" s="3" t="n">
-        <v>46029</v>
+        <v>46028</v>
       </c>
       <c r="U340" s="3" t="n">
         <v>46029</v>
@@ -30424,7 +30658,7 @@
       <c r="AA340" t="inlineStr"/>
       <c r="AB340" t="inlineStr">
         <is>
-          <t>PROPULSION Y GOBIERNO</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
@@ -30444,53 +30678,45 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>GP/99-126-PG-PI</t>
+          <t>GP/99-126-CA-PI-6</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>5016881</t>
+          <t>5016861</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>GOBIERNO</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0040</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Desmonta/mont de SG</t>
+          <t>DISPOSICION DE RESIDUOS SOLIDOS</t>
         </is>
       </c>
       <c r="I341" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="J341" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K341" t="n">
-        <v>2044543222</v>
-      </c>
-      <c r="L341" t="inlineStr">
-        <is>
-          <t>MULTISERVICIOS Z &amp; R E.I.R.L.</t>
-        </is>
-      </c>
-      <c r="M341" t="n">
-        <v>30019703</v>
-      </c>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="inlineStr"/>
+      <c r="M341" t="inlineStr"/>
       <c r="N341" s="3" t="n">
-        <v>46043</v>
+        <v>46028</v>
       </c>
       <c r="O341" s="3" t="n">
-        <v>46043</v>
+        <v>46028</v>
       </c>
       <c r="P341" t="inlineStr"/>
       <c r="Q341" t="inlineStr"/>
@@ -30499,10 +30725,10 @@
       </c>
       <c r="S341" t="inlineStr"/>
       <c r="T341" s="3" t="n">
-        <v>46043</v>
+        <v>46028</v>
       </c>
       <c r="U341" s="3" t="n">
-        <v>46043</v>
+        <v>46029</v>
       </c>
       <c r="V341" t="inlineStr"/>
       <c r="W341" t="inlineStr"/>
@@ -30512,7 +30738,7 @@
       <c r="AA341" t="inlineStr"/>
       <c r="AB341" t="inlineStr">
         <is>
-          <t>PROPULSION Y GOBIERNO</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
@@ -30532,31 +30758,31 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>GP/99-126-PG-PI</t>
+          <t>GP/99-126-CA-PI-6</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>5016881</t>
+          <t>5016861</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>GOBIERNO</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>0030</t>
+          <t>0050</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Relleno con soldadura de eje baron</t>
+          <t>SERVICIO DE GRUA</t>
         </is>
       </c>
       <c r="I342" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="J342" t="inlineStr">
         <is>
@@ -30565,14 +30791,12 @@
       </c>
       <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr"/>
-      <c r="M342" t="n">
-        <v>30019703</v>
-      </c>
+      <c r="M342" t="inlineStr"/>
       <c r="N342" s="3" t="n">
-        <v>46053</v>
+        <v>46028</v>
       </c>
       <c r="O342" s="3" t="n">
-        <v>46053</v>
+        <v>46028</v>
       </c>
       <c r="P342" t="inlineStr"/>
       <c r="Q342" t="inlineStr"/>
@@ -30581,26 +30805,22 @@
       </c>
       <c r="S342" t="inlineStr"/>
       <c r="T342" s="3" t="n">
-        <v>46053</v>
+        <v>46028</v>
       </c>
       <c r="U342" s="3" t="n">
-        <v>46053</v>
-      </c>
-      <c r="V342" t="inlineStr"/>
+        <v>46029</v>
+      </c>
+      <c r="V342" s="3" t="n">
+        <v>46060</v>
+      </c>
       <c r="W342" t="inlineStr"/>
       <c r="X342" t="inlineStr"/>
-      <c r="Y342" t="n">
-        <v>2267.72</v>
-      </c>
-      <c r="Z342" t="n">
-        <v>1949.63</v>
-      </c>
-      <c r="AA342" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y342" t="inlineStr"/>
+      <c r="Z342" t="inlineStr"/>
+      <c r="AA342" t="inlineStr"/>
       <c r="AB342" t="inlineStr">
         <is>
-          <t>PROPULSION Y GOBIERNO</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
@@ -30620,31 +30840,31 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>GP/99-126-SA-PI</t>
+          <t>GP/99-126-CA-PI-6</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>5016882</t>
+          <t>5016861</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>VALVULAS</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0060</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Desm/mont de válvulas</t>
+          <t>Presupuesto evac resd</t>
         </is>
       </c>
       <c r="I343" t="n">
-        <v>8900</v>
+        <v>5000</v>
       </c>
       <c r="J343" t="inlineStr">
         <is>
@@ -30654,13 +30874,13 @@
       <c r="K343" t="inlineStr"/>
       <c r="L343" t="inlineStr"/>
       <c r="M343" t="n">
-        <v>30019704</v>
+        <v>30019713</v>
       </c>
       <c r="N343" s="3" t="n">
-        <v>46029</v>
+        <v>46028</v>
       </c>
       <c r="O343" s="3" t="n">
-        <v>46029</v>
+        <v>46028</v>
       </c>
       <c r="P343" t="inlineStr"/>
       <c r="Q343" t="inlineStr"/>
@@ -30677,18 +30897,12 @@
       <c r="V343" t="inlineStr"/>
       <c r="W343" t="inlineStr"/>
       <c r="X343" t="inlineStr"/>
-      <c r="Y343" t="n">
-        <v>1805.66</v>
-      </c>
-      <c r="Z343" t="n">
-        <v>1517.2</v>
-      </c>
-      <c r="AA343" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y343" t="inlineStr"/>
+      <c r="Z343" t="inlineStr"/>
+      <c r="AA343" t="inlineStr"/>
       <c r="AB343" t="inlineStr">
         <is>
-          <t>SISTEMAS AUXILIARES</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
@@ -30708,31 +30922,31 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>GP/99-126-MO-PI-2</t>
+          <t>GP/99-126-CA-PI-6</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>5017062</t>
+          <t>5016861</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>ESCAPE</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0070</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Cambio de tuberías de escape</t>
+          <t>Presupuesto limpieza de patio</t>
         </is>
       </c>
       <c r="I344" t="n">
-        <v>6400</v>
+        <v>5000</v>
       </c>
       <c r="J344" t="inlineStr">
         <is>
@@ -30742,7 +30956,7 @@
       <c r="K344" t="inlineStr"/>
       <c r="L344" t="inlineStr"/>
       <c r="M344" t="n">
-        <v>30019840</v>
+        <v>30019713</v>
       </c>
       <c r="N344" s="3" t="n">
         <v>46028</v>
@@ -30757,26 +30971,20 @@
       </c>
       <c r="S344" t="inlineStr"/>
       <c r="T344" s="3" t="n">
-        <v>46036</v>
+        <v>46029</v>
       </c>
       <c r="U344" s="3" t="n">
-        <v>46036</v>
+        <v>46029</v>
       </c>
       <c r="V344" t="inlineStr"/>
       <c r="W344" t="inlineStr"/>
       <c r="X344" t="inlineStr"/>
-      <c r="Y344" t="n">
-        <v>4778.245</v>
-      </c>
-      <c r="Z344" t="n">
-        <v>220</v>
-      </c>
-      <c r="AA344" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y344" t="inlineStr"/>
+      <c r="Z344" t="inlineStr"/>
+      <c r="AA344" t="inlineStr"/>
       <c r="AB344" t="inlineStr">
         <is>
-          <t>OPEX</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
@@ -30796,31 +31004,31 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>GP/99-126-MO-PI-2</t>
+          <t>GP/99-126-CA-PI-6</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>5017063</t>
+          <t>5016861</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>PUERTAS ESTANCAS</t>
+          <t>OTROS SERVICIOS INTERNOS</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0080</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Cambio cáncamos y manijas en puertas</t>
+          <t>Presupuesto grua</t>
         </is>
       </c>
       <c r="I345" t="n">
-        <v>1</v>
+        <v>11000</v>
       </c>
       <c r="J345" t="inlineStr">
         <is>
@@ -30830,7 +31038,7 @@
       <c r="K345" t="inlineStr"/>
       <c r="L345" t="inlineStr"/>
       <c r="M345" t="n">
-        <v>30019841</v>
+        <v>30019713</v>
       </c>
       <c r="N345" s="3" t="n">
         <v>46028</v>
@@ -30845,26 +31053,20 @@
       </c>
       <c r="S345" t="inlineStr"/>
       <c r="T345" s="3" t="n">
-        <v>46036</v>
+        <v>46029</v>
       </c>
       <c r="U345" s="3" t="n">
-        <v>46036</v>
+        <v>46029</v>
       </c>
       <c r="V345" t="inlineStr"/>
       <c r="W345" t="inlineStr"/>
       <c r="X345" t="inlineStr"/>
-      <c r="Y345" t="n">
-        <v>11745.762</v>
-      </c>
-      <c r="Z345" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA345" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y345" t="inlineStr"/>
+      <c r="Z345" t="inlineStr"/>
+      <c r="AA345" t="inlineStr"/>
       <c r="AB345" t="inlineStr">
         <is>
-          <t>OPEX</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
@@ -30884,17 +31086,17 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>GP/99-126-MO-PI-2</t>
+          <t>GP/99-126-PG-PI</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>5017064</t>
+          <t>5016880</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>BODEGAS</t>
+          <t>PROPULSION</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -30904,27 +31106,33 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Cambio estrucutra de colectores de piso</t>
+          <t>Inspección de SP 05</t>
         </is>
       </c>
       <c r="I346" t="n">
-        <v>4200</v>
+        <v>536</v>
       </c>
       <c r="J346" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>2044543222</v>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>MULTISERVICIOS Z &amp; R E.I.R.L.</t>
+        </is>
+      </c>
       <c r="M346" t="n">
-        <v>30019842</v>
+        <v>30019702</v>
       </c>
       <c r="N346" s="3" t="n">
-        <v>46028</v>
+        <v>46029</v>
       </c>
       <c r="O346" s="3" t="n">
-        <v>46028</v>
+        <v>46029</v>
       </c>
       <c r="P346" t="inlineStr"/>
       <c r="Q346" t="inlineStr"/>
@@ -30933,26 +31141,22 @@
       </c>
       <c r="S346" t="inlineStr"/>
       <c r="T346" s="3" t="n">
-        <v>46036</v>
+        <v>46029</v>
       </c>
       <c r="U346" s="3" t="n">
-        <v>46036</v>
-      </c>
-      <c r="V346" t="inlineStr"/>
+        <v>46029</v>
+      </c>
+      <c r="V346" s="3" t="n">
+        <v>46049</v>
+      </c>
       <c r="W346" t="inlineStr"/>
       <c r="X346" t="inlineStr"/>
-      <c r="Y346" t="n">
-        <v>896.295</v>
-      </c>
-      <c r="Z346" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA346" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y346" t="inlineStr"/>
+      <c r="Z346" t="inlineStr"/>
+      <c r="AA346" t="inlineStr"/>
       <c r="AB346" t="inlineStr">
         <is>
-          <t>OPEX</t>
+          <t>PROPULSION Y GOBIERNO</t>
         </is>
       </c>
     </row>
@@ -30972,17 +31176,17 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>GP/99-126-MO-PI-2</t>
+          <t>GP/99-126-PG-PI</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>5017064</t>
+          <t>5016880</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>BODEGAS</t>
+          <t>PROPULSION</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
@@ -30992,27 +31196,33 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Confección de abrazaderas de tubulares</t>
+          <t>Desm/mont de SP 05</t>
         </is>
       </c>
       <c r="I347" t="n">
-        <v>2560</v>
+        <v>12000</v>
       </c>
       <c r="J347" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>2044543222</v>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>MULTISERVICIOS Z &amp; R E.I.R.L.</t>
+        </is>
+      </c>
       <c r="M347" t="n">
-        <v>30019842</v>
+        <v>30019702</v>
       </c>
       <c r="N347" s="3" t="n">
-        <v>46028</v>
+        <v>46029</v>
       </c>
       <c r="O347" s="3" t="n">
-        <v>46028</v>
+        <v>46029</v>
       </c>
       <c r="P347" t="inlineStr"/>
       <c r="Q347" t="inlineStr"/>
@@ -31021,26 +31231,20 @@
       </c>
       <c r="S347" t="inlineStr"/>
       <c r="T347" s="3" t="n">
-        <v>46036</v>
+        <v>46029</v>
       </c>
       <c r="U347" s="3" t="n">
-        <v>46036</v>
+        <v>46029</v>
       </c>
       <c r="V347" t="inlineStr"/>
       <c r="W347" t="inlineStr"/>
       <c r="X347" t="inlineStr"/>
-      <c r="Y347" t="n">
-        <v>1337.169</v>
-      </c>
-      <c r="Z347" t="n">
-        <v>963.09</v>
-      </c>
-      <c r="AA347" t="n">
-        <v>135.6475</v>
-      </c>
+      <c r="Y347" t="inlineStr"/>
+      <c r="Z347" t="inlineStr"/>
+      <c r="AA347" t="inlineStr"/>
       <c r="AB347" t="inlineStr">
         <is>
-          <t>OPEX</t>
+          <t>PROPULSION Y GOBIERNO</t>
         </is>
       </c>
     </row>
@@ -31060,53 +31264,47 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>GP/99-126-MO-PI-2</t>
+          <t>GP/99-126-PG-PI</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>5017065</t>
+          <t>5016880</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>DEFENSA DE RED</t>
+          <t>PROPULSION</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Cambio de defensa de red ER</t>
+          <t>Relleno de puños de ejes</t>
         </is>
       </c>
       <c r="I348" t="n">
-        <v>5400</v>
+        <v>16000</v>
       </c>
       <c r="J348" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K348" t="n">
-        <v>2053201679</v>
-      </c>
-      <c r="L348" t="inlineStr">
-        <is>
-          <t>MULTISERVICIOS KYP S.A.C.</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="inlineStr"/>
       <c r="M348" t="n">
-        <v>30019843</v>
+        <v>30019702</v>
       </c>
       <c r="N348" s="3" t="n">
-        <v>46041</v>
+        <v>46029</v>
       </c>
       <c r="O348" s="3" t="n">
-        <v>46079</v>
+        <v>46029</v>
       </c>
       <c r="P348" t="inlineStr"/>
       <c r="Q348" t="inlineStr"/>
@@ -31115,28 +31313,20 @@
       </c>
       <c r="S348" t="inlineStr"/>
       <c r="T348" s="3" t="n">
-        <v>46036</v>
+        <v>46029</v>
       </c>
       <c r="U348" s="3" t="n">
-        <v>46036</v>
-      </c>
-      <c r="V348" s="3" t="n">
-        <v>46060</v>
-      </c>
+        <v>46029</v>
+      </c>
+      <c r="V348" t="inlineStr"/>
       <c r="W348" t="inlineStr"/>
       <c r="X348" t="inlineStr"/>
-      <c r="Y348" t="n">
-        <v>4897.996999999999</v>
-      </c>
-      <c r="Z348" t="n">
-        <v>2870.29</v>
-      </c>
-      <c r="AA348" t="n">
-        <v>631.5755</v>
-      </c>
+      <c r="Y348" t="inlineStr"/>
+      <c r="Z348" t="inlineStr"/>
+      <c r="AA348" t="inlineStr"/>
       <c r="AB348" t="inlineStr">
         <is>
-          <t>OPEX</t>
+          <t>PROPULSION Y GOBIERNO</t>
         </is>
       </c>
     </row>
@@ -31156,47 +31346,53 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>GP/99-126-MO-PI-2</t>
+          <t>GP/99-126-PG-PI</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>5017065</t>
+          <t>5016880</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>DEFENSA DE RED</t>
+          <t>PROPULSION</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0040</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Cambio de tambucho protector de tuberías</t>
+          <t>Remoción de fibra en ejes</t>
         </is>
       </c>
       <c r="I349" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="J349" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>2060838820</v>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>MULTISERVICIOS VASQUEZ &amp; JAV E.I.R.</t>
+        </is>
+      </c>
       <c r="M349" t="n">
-        <v>30019843</v>
+        <v>30019702</v>
       </c>
       <c r="N349" s="3" t="n">
-        <v>46028</v>
+        <v>46043</v>
       </c>
       <c r="O349" s="3" t="n">
-        <v>46028</v>
+        <v>46043</v>
       </c>
       <c r="P349" t="inlineStr"/>
       <c r="Q349" t="inlineStr"/>
@@ -31205,10 +31401,10 @@
       </c>
       <c r="S349" t="inlineStr"/>
       <c r="T349" s="3" t="n">
-        <v>46036</v>
+        <v>46043</v>
       </c>
       <c r="U349" s="3" t="n">
-        <v>46036</v>
+        <v>46043</v>
       </c>
       <c r="V349" t="inlineStr"/>
       <c r="W349" t="inlineStr"/>
@@ -31218,7 +31414,7 @@
       <c r="AA349" t="inlineStr"/>
       <c r="AB349" t="inlineStr">
         <is>
-          <t>OPEX</t>
+          <t>PROPULSION Y GOBIERNO</t>
         </is>
       </c>
     </row>
@@ -31238,31 +31434,31 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>GP/99-126-MO-PI-2</t>
+          <t>GP/99-126-PG-PI</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>5017066</t>
+          <t>5016880</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>AMURADA</t>
+          <t>PROPULSION</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0050</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Cambio de amurada</t>
+          <t>Reparación de SP 05</t>
         </is>
       </c>
       <c r="I350" t="n">
-        <v>5200</v>
+        <v>16000</v>
       </c>
       <c r="J350" t="inlineStr">
         <is>
@@ -31272,13 +31468,13 @@
       <c r="K350" t="inlineStr"/>
       <c r="L350" t="inlineStr"/>
       <c r="M350" t="n">
-        <v>30019844</v>
+        <v>30019702</v>
       </c>
       <c r="N350" s="3" t="n">
-        <v>46028</v>
+        <v>46056</v>
       </c>
       <c r="O350" s="3" t="n">
-        <v>46028</v>
+        <v>46056</v>
       </c>
       <c r="P350" t="inlineStr"/>
       <c r="Q350" t="inlineStr"/>
@@ -31287,26 +31483,26 @@
       </c>
       <c r="S350" t="inlineStr"/>
       <c r="T350" s="3" t="n">
-        <v>46036</v>
+        <v>46056</v>
       </c>
       <c r="U350" s="3" t="n">
-        <v>46036</v>
+        <v>46056</v>
       </c>
       <c r="V350" t="inlineStr"/>
       <c r="W350" t="inlineStr"/>
       <c r="X350" t="inlineStr"/>
       <c r="Y350" t="n">
-        <v>7207.004</v>
+        <v>17257.581</v>
       </c>
       <c r="Z350" t="n">
-        <v>5512.29</v>
+        <v>1072.98</v>
       </c>
       <c r="AA350" t="n">
-        <v>1210.6544</v>
+        <v>6.264999999999999</v>
       </c>
       <c r="AB350" t="inlineStr">
         <is>
-          <t>OPEX</t>
+          <t>PROPULSION Y GOBIERNO</t>
         </is>
       </c>
     </row>
@@ -31326,17 +31522,17 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>GP/99-126-MO-PI-2</t>
+          <t>GP/99-126-PG-PI</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>5017067</t>
+          <t>5016881</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>REGALA</t>
+          <t>GOBIERNO</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
@@ -31346,27 +31542,33 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Cambio de regala</t>
+          <t>Inspección de SG</t>
         </is>
       </c>
       <c r="I351" t="n">
-        <v>5000</v>
+        <v>550</v>
       </c>
       <c r="J351" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>2044543222</v>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>MULTISERVICIOS Z &amp; R E.I.R.L.</t>
+        </is>
+      </c>
       <c r="M351" t="n">
-        <v>30019845</v>
+        <v>30019703</v>
       </c>
       <c r="N351" s="3" t="n">
-        <v>46028</v>
+        <v>46029</v>
       </c>
       <c r="O351" s="3" t="n">
-        <v>46028</v>
+        <v>46029</v>
       </c>
       <c r="P351" t="inlineStr"/>
       <c r="Q351" t="inlineStr"/>
@@ -31375,32 +31577,26 @@
       </c>
       <c r="S351" t="inlineStr"/>
       <c r="T351" s="3" t="n">
-        <v>46036</v>
+        <v>46029</v>
       </c>
       <c r="U351" s="3" t="n">
-        <v>46036</v>
+        <v>46029</v>
       </c>
       <c r="V351" t="inlineStr"/>
       <c r="W351" t="inlineStr"/>
       <c r="X351" t="inlineStr"/>
-      <c r="Y351" t="n">
-        <v>2401.4</v>
-      </c>
-      <c r="Z351" t="n">
-        <v>338.73</v>
-      </c>
-      <c r="AA351" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y351" t="inlineStr"/>
+      <c r="Z351" t="inlineStr"/>
+      <c r="AA351" t="inlineStr"/>
       <c r="AB351" t="inlineStr">
         <is>
-          <t>OPEX</t>
+          <t>PROPULSION Y GOBIERNO</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
@@ -31414,31 +31610,31 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>GP/99-126-MO-PI-2</t>
+          <t>GP/99-126-PG-PI</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>5017074</t>
+          <t>5016881</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>VENTANAS PARA ARENADO</t>
+          <t>GOBIERNO</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Apertura/cierre ventanas en pantoque bdg</t>
+          <t>Desmonta/mont de SG</t>
         </is>
       </c>
       <c r="I352" t="n">
-        <v>4013.46</v>
+        <v>2050</v>
       </c>
       <c r="J352" t="inlineStr">
         <is>
@@ -31446,39 +31642,35 @@
         </is>
       </c>
       <c r="K352" t="n">
-        <v>2053201679</v>
+        <v>2044543222</v>
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>MULTISERVICIOS KYP S.A.C.</t>
+          <t>MULTISERVICIOS Z &amp; R E.I.R.L.</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>30019821</v>
+        <v>30019703</v>
       </c>
       <c r="N352" s="3" t="n">
-        <v>46039</v>
+        <v>46043</v>
       </c>
       <c r="O352" s="3" t="n">
-        <v>46101</v>
-      </c>
-      <c r="P352" s="3" t="n">
         <v>46043</v>
       </c>
+      <c r="P352" t="inlineStr"/>
       <c r="Q352" t="inlineStr"/>
       <c r="R352" t="n">
         <v>0</v>
       </c>
       <c r="S352" t="inlineStr"/>
       <c r="T352" s="3" t="n">
-        <v>46036</v>
+        <v>46043</v>
       </c>
       <c r="U352" s="3" t="n">
-        <v>46036</v>
-      </c>
-      <c r="V352" s="3" t="n">
         <v>46043</v>
       </c>
+      <c r="V352" t="inlineStr"/>
       <c r="W352" t="inlineStr"/>
       <c r="X352" t="inlineStr"/>
       <c r="Y352" t="inlineStr"/>
@@ -31486,7 +31678,7 @@
       <c r="AA352" t="inlineStr"/>
       <c r="AB352" t="inlineStr">
         <is>
-          <t>OPEX</t>
+          <t>PROPULSION Y GOBIERNO</t>
         </is>
       </c>
     </row>
@@ -31506,53 +31698,47 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>GP/99-126-MO-PI-2</t>
+          <t>GP/99-126-PG-PI</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>5017074</t>
+          <t>5016881</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>VENTANAS PARA ARENADO</t>
+          <t>GOBIERNO</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Apertura/cierre 01 ventana</t>
+          <t>Relleno con soldadura de eje baron</t>
         </is>
       </c>
       <c r="I353" t="n">
-        <v>668.91</v>
+        <v>800</v>
       </c>
       <c r="J353" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K353" t="n">
-        <v>2053201679</v>
-      </c>
-      <c r="L353" t="inlineStr">
-        <is>
-          <t>MULTISERVICIOS KYP S.A.C.</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="inlineStr"/>
       <c r="M353" t="n">
-        <v>30019821</v>
+        <v>30019703</v>
       </c>
       <c r="N353" s="3" t="n">
-        <v>46041</v>
+        <v>46053</v>
       </c>
       <c r="O353" s="3" t="n">
-        <v>46079</v>
+        <v>46053</v>
       </c>
       <c r="P353" t="inlineStr"/>
       <c r="Q353" t="inlineStr"/>
@@ -31561,22 +31747,26 @@
       </c>
       <c r="S353" t="inlineStr"/>
       <c r="T353" s="3" t="n">
-        <v>46059</v>
+        <v>46053</v>
       </c>
       <c r="U353" s="3" t="n">
-        <v>46059</v>
-      </c>
-      <c r="V353" s="3" t="n">
-        <v>46060</v>
-      </c>
+        <v>46053</v>
+      </c>
+      <c r="V353" t="inlineStr"/>
       <c r="W353" t="inlineStr"/>
       <c r="X353" t="inlineStr"/>
-      <c r="Y353" t="inlineStr"/>
-      <c r="Z353" t="inlineStr"/>
-      <c r="AA353" t="inlineStr"/>
+      <c r="Y353" t="n">
+        <v>2267.72</v>
+      </c>
+      <c r="Z353" t="n">
+        <v>2114.59</v>
+      </c>
+      <c r="AA353" t="n">
+        <v>0</v>
+      </c>
       <c r="AB353" t="inlineStr">
         <is>
-          <t>OPEX</t>
+          <t>PROPULSION Y GOBIERNO</t>
         </is>
       </c>
     </row>
@@ -31596,47 +31786,53 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-1</t>
+          <t>GP/99-126-PG-PI</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>5017075</t>
+          <t>5016881</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>CUBIERTA PPAL</t>
+          <t>GOBIERNO</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0040</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Cambio de pl en cbt</t>
+          <t>Remoción de bocina mixta</t>
         </is>
       </c>
       <c r="I354" t="n">
-        <v>13500</v>
+        <v>0</v>
       </c>
       <c r="J354" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>2060838820</v>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>MULTISERVICIOS VASQUEZ &amp; JAV E.I.R.</t>
+        </is>
+      </c>
       <c r="M354" t="n">
-        <v>30019822</v>
+        <v>30019703</v>
       </c>
       <c r="N354" s="3" t="n">
-        <v>46036</v>
+        <v>46063</v>
       </c>
       <c r="O354" s="3" t="n">
-        <v>46036</v>
+        <v>46063</v>
       </c>
       <c r="P354" t="inlineStr"/>
       <c r="Q354" t="inlineStr"/>
@@ -31645,26 +31841,20 @@
       </c>
       <c r="S354" t="inlineStr"/>
       <c r="T354" s="3" t="n">
-        <v>46036</v>
+        <v>46063</v>
       </c>
       <c r="U354" s="3" t="n">
-        <v>46036</v>
+        <v>46063</v>
       </c>
       <c r="V354" t="inlineStr"/>
       <c r="W354" t="inlineStr"/>
       <c r="X354" t="inlineStr"/>
-      <c r="Y354" t="n">
-        <v>21575.405</v>
-      </c>
-      <c r="Z354" t="n">
-        <v>15671.93</v>
-      </c>
-      <c r="AA354" t="n">
-        <v>4122.33072</v>
-      </c>
+      <c r="Y354" t="inlineStr"/>
+      <c r="Z354" t="inlineStr"/>
+      <c r="AA354" t="inlineStr"/>
       <c r="AB354" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>PROPULSION Y GOBIERNO</t>
         </is>
       </c>
     </row>
@@ -31684,17 +31874,17 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>GP/99-126-MO-PI-2</t>
+          <t>GP/99-126-CA-PI-1</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>5017076</t>
+          <t>5016870</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>PAÑOL DE CADENAS</t>
+          <t>CASCO</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -31704,11 +31894,11 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Libre</t>
+          <t>Cambio de plancha pique proa</t>
         </is>
       </c>
       <c r="I355" t="n">
-        <v>2000</v>
+        <v>13500</v>
       </c>
       <c r="J355" t="inlineStr">
         <is>
@@ -31718,7 +31908,7 @@
       <c r="K355" t="inlineStr"/>
       <c r="L355" t="inlineStr"/>
       <c r="M355" t="n">
-        <v>30019823</v>
+        <v>30019716</v>
       </c>
       <c r="N355" s="3" t="n">
         <v>46028</v>
@@ -31733,20 +31923,26 @@
       </c>
       <c r="S355" t="inlineStr"/>
       <c r="T355" s="3" t="n">
-        <v>46036</v>
+        <v>46029</v>
       </c>
       <c r="U355" s="3" t="n">
-        <v>46036</v>
+        <v>46029</v>
       </c>
       <c r="V355" t="inlineStr"/>
       <c r="W355" t="inlineStr"/>
       <c r="X355" t="inlineStr"/>
-      <c r="Y355" t="inlineStr"/>
-      <c r="Z355" t="inlineStr"/>
-      <c r="AA355" t="inlineStr"/>
+      <c r="Y355" t="n">
+        <v>8156.01</v>
+      </c>
+      <c r="Z355" t="n">
+        <v>7396.11</v>
+      </c>
+      <c r="AA355" t="n">
+        <v>1610.82</v>
+      </c>
       <c r="AB355" t="inlineStr">
         <is>
-          <t>OPEX</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
@@ -31766,31 +31962,31 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>GP/99-126-MO-PI-2</t>
+          <t>GP/99-126-CA-PI-1</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>5017078</t>
+          <t>5016870</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>GATERA</t>
+          <t>CASCO</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Confección de gatero</t>
+          <t>Cambio de plancha en rampa y mandil popa</t>
         </is>
       </c>
       <c r="I356" t="n">
-        <v>2400</v>
+        <v>13500</v>
       </c>
       <c r="J356" t="inlineStr">
         <is>
@@ -31800,13 +31996,13 @@
       <c r="K356" t="inlineStr"/>
       <c r="L356" t="inlineStr"/>
       <c r="M356" t="n">
-        <v>30019860</v>
+        <v>30019716</v>
       </c>
       <c r="N356" s="3" t="n">
-        <v>46028</v>
+        <v>46037</v>
       </c>
       <c r="O356" s="3" t="n">
-        <v>46028</v>
+        <v>46037</v>
       </c>
       <c r="P356" t="inlineStr"/>
       <c r="Q356" t="inlineStr"/>
@@ -31823,12 +32019,18 @@
       <c r="V356" t="inlineStr"/>
       <c r="W356" t="inlineStr"/>
       <c r="X356" t="inlineStr"/>
-      <c r="Y356" t="inlineStr"/>
-      <c r="Z356" t="inlineStr"/>
-      <c r="AA356" t="inlineStr"/>
+      <c r="Y356" t="n">
+        <v>12759.714</v>
+      </c>
+      <c r="Z356" t="n">
+        <v>10741.26</v>
+      </c>
+      <c r="AA356" t="n">
+        <v>2272.98603</v>
+      </c>
       <c r="AB356" t="inlineStr">
         <is>
-          <t>OPEX</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
@@ -31848,53 +32050,47 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-3</t>
+          <t>GP/99-126-CA-PI-1</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>5017083</t>
+          <t>5016870</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>LIMPIEZA</t>
+          <t>CASCO</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Limpieza de sentina</t>
+          <t>Cambio de plancha mamp caseta/puente</t>
         </is>
       </c>
       <c r="I357" t="n">
-        <v>911.79</v>
+        <v>21600</v>
       </c>
       <c r="J357" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K357" t="n">
-        <v>2060671352</v>
-      </c>
-      <c r="L357" t="inlineStr">
-        <is>
-          <t>MULTISERVICIOS KALEB S.A.C.</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="inlineStr"/>
       <c r="M357" t="n">
-        <v>30019875</v>
+        <v>30019716</v>
       </c>
       <c r="N357" s="3" t="n">
-        <v>46039</v>
+        <v>46051</v>
       </c>
       <c r="O357" s="3" t="n">
-        <v>46048</v>
+        <v>46051</v>
       </c>
       <c r="P357" t="inlineStr"/>
       <c r="Q357" t="inlineStr"/>
@@ -31903,25 +32099,17 @@
       </c>
       <c r="S357" t="inlineStr"/>
       <c r="T357" s="3" t="n">
-        <v>46039</v>
+        <v>46051</v>
       </c>
       <c r="U357" s="3" t="n">
-        <v>46039</v>
-      </c>
-      <c r="V357" s="3" t="n">
-        <v>46062</v>
-      </c>
+        <v>46051</v>
+      </c>
+      <c r="V357" t="inlineStr"/>
       <c r="W357" t="inlineStr"/>
       <c r="X357" t="inlineStr"/>
-      <c r="Y357" t="n">
-        <v>130.6</v>
-      </c>
-      <c r="Z357" t="n">
-        <v>130.6</v>
-      </c>
-      <c r="AA357" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y357" t="inlineStr"/>
+      <c r="Z357" t="inlineStr"/>
+      <c r="AA357" t="inlineStr"/>
       <c r="AB357" t="inlineStr">
         <is>
           <t>CASCO</t>
@@ -31944,53 +32132,47 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-3</t>
+          <t>GP/99-126-CA-PI-1</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>5017083</t>
+          <t>5016870</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>LIMPIEZA</t>
+          <t>CASCO</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0040</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Limpieza de lazareto y bodegas</t>
+          <t>Cambio de plancha casco fondo</t>
         </is>
       </c>
       <c r="I358" t="n">
-        <v>464.87</v>
+        <v>13500</v>
       </c>
       <c r="J358" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K358" t="n">
-        <v>2060671352</v>
-      </c>
-      <c r="L358" t="inlineStr">
-        <is>
-          <t>MULTISERVICIOS KALEB S.A.C.</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="inlineStr"/>
       <c r="M358" t="n">
-        <v>30019875</v>
+        <v>30019716</v>
       </c>
       <c r="N358" s="3" t="n">
-        <v>46048</v>
+        <v>46059</v>
       </c>
       <c r="O358" s="3" t="n">
-        <v>46048</v>
+        <v>46059</v>
       </c>
       <c r="P358" t="inlineStr"/>
       <c r="Q358" t="inlineStr"/>
@@ -31999,19 +32181,23 @@
       </c>
       <c r="S358" t="inlineStr"/>
       <c r="T358" s="3" t="n">
-        <v>46062</v>
+        <v>46059</v>
       </c>
       <c r="U358" s="3" t="n">
-        <v>46062</v>
-      </c>
-      <c r="V358" s="3" t="n">
-        <v>46062</v>
-      </c>
+        <v>46059</v>
+      </c>
+      <c r="V358" t="inlineStr"/>
       <c r="W358" t="inlineStr"/>
       <c r="X358" t="inlineStr"/>
-      <c r="Y358" t="inlineStr"/>
-      <c r="Z358" t="inlineStr"/>
-      <c r="AA358" t="inlineStr"/>
+      <c r="Y358" t="n">
+        <v>2210.045</v>
+      </c>
+      <c r="Z358" t="n">
+        <v>321.42</v>
+      </c>
+      <c r="AA358" t="n">
+        <v>0</v>
+      </c>
       <c r="AB358" t="inlineStr">
         <is>
           <t>CASCO</t>
@@ -32034,53 +32220,47 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-3</t>
+          <t>GP/99-126-CA-PI-1</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>5017083</t>
+          <t>5016870</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>LIMPIEZA</t>
+          <t>CASCO</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>0030</t>
+          <t>0050</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Limpieza de túnel de propulsión</t>
+          <t>Cambio de plancha casco lateral</t>
         </is>
       </c>
       <c r="I359" t="n">
-        <v>691.6799999999999</v>
+        <v>13500</v>
       </c>
       <c r="J359" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K359" t="n">
-        <v>2060671352</v>
-      </c>
-      <c r="L359" t="inlineStr">
-        <is>
-          <t>MULTISERVICIOS KALEB S.A.C.</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="inlineStr"/>
       <c r="M359" t="n">
-        <v>30019875</v>
+        <v>30019716</v>
       </c>
       <c r="N359" s="3" t="n">
-        <v>46043</v>
+        <v>46059</v>
       </c>
       <c r="O359" s="3" t="n">
-        <v>46043</v>
+        <v>46059</v>
       </c>
       <c r="P359" t="inlineStr"/>
       <c r="Q359" t="inlineStr"/>
@@ -32089,19 +32269,23 @@
       </c>
       <c r="S359" t="inlineStr"/>
       <c r="T359" s="3" t="n">
-        <v>46062</v>
+        <v>46059</v>
       </c>
       <c r="U359" s="3" t="n">
-        <v>46062</v>
-      </c>
-      <c r="V359" s="3" t="n">
-        <v>46062</v>
-      </c>
+        <v>46059</v>
+      </c>
+      <c r="V359" t="inlineStr"/>
       <c r="W359" t="inlineStr"/>
       <c r="X359" t="inlineStr"/>
-      <c r="Y359" t="inlineStr"/>
-      <c r="Z359" t="inlineStr"/>
-      <c r="AA359" t="inlineStr"/>
+      <c r="Y359" t="n">
+        <v>57442.05</v>
+      </c>
+      <c r="Z359" t="n">
+        <v>24561.85</v>
+      </c>
+      <c r="AA359" t="n">
+        <v>6231.33</v>
+      </c>
       <c r="AB359" t="inlineStr">
         <is>
           <t>CASCO</t>
@@ -32124,31 +32308,31 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-3</t>
+          <t>GP/99-126-CA-PI-7</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>5017083</t>
+          <t>5017366</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>LIMPIEZA</t>
+          <t>ALBAÑILERIA</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>0040</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Limpieza de tq petróleo</t>
+          <t>Esfuerzo adicional - MANNA (Lastrado)</t>
         </is>
       </c>
       <c r="I360" t="n">
-        <v>424.44</v>
+        <v>2906.95</v>
       </c>
       <c r="J360" t="inlineStr">
         <is>
@@ -32156,21 +32340,19 @@
         </is>
       </c>
       <c r="K360" t="n">
-        <v>2060671352</v>
+        <v>2051778677</v>
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>MULTISERVICIOS KALEB S.A.C.</t>
-        </is>
-      </c>
-      <c r="M360" t="n">
-        <v>30019875</v>
-      </c>
+          <t>MANNA S.A.C.</t>
+        </is>
+      </c>
+      <c r="M360" t="inlineStr"/>
       <c r="N360" s="3" t="n">
-        <v>46043</v>
+        <v>46040</v>
       </c>
       <c r="O360" s="3" t="n">
-        <v>46043</v>
+        <v>46059</v>
       </c>
       <c r="P360" t="inlineStr"/>
       <c r="Q360" t="inlineStr"/>
@@ -32179,13 +32361,11 @@
       </c>
       <c r="S360" t="inlineStr"/>
       <c r="T360" s="3" t="n">
-        <v>46062</v>
-      </c>
-      <c r="U360" s="3" t="n">
-        <v>46062</v>
-      </c>
+        <v>46063</v>
+      </c>
+      <c r="U360" t="inlineStr"/>
       <c r="V360" s="3" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="W360" t="inlineStr"/>
       <c r="X360" t="inlineStr"/>
@@ -32214,31 +32394,31 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-3</t>
+          <t>GP/99-126-CA-PI-7</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>5017083</t>
+          <t>5017370</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>LIMPIEZA</t>
+          <t>AREN/PINT</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>0050</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Evacuación de refrigerante</t>
+          <t>Esfuerzo adicional - MANNA (Aren-Pint)</t>
         </is>
       </c>
       <c r="I361" t="n">
-        <v>426.7</v>
+        <v>4023.15</v>
       </c>
       <c r="J361" t="inlineStr">
         <is>
@@ -32246,21 +32426,19 @@
         </is>
       </c>
       <c r="K361" t="n">
-        <v>2060671352</v>
+        <v>2051778677</v>
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>MULTISERVICIOS KALEB S.A.C.</t>
-        </is>
-      </c>
-      <c r="M361" t="n">
-        <v>30019875</v>
-      </c>
+          <t>MANNA S.A.C.</t>
+        </is>
+      </c>
+      <c r="M361" t="inlineStr"/>
       <c r="N361" s="3" t="n">
-        <v>46044</v>
+        <v>46047</v>
       </c>
       <c r="O361" s="3" t="n">
-        <v>46045</v>
+        <v>46057</v>
       </c>
       <c r="P361" t="inlineStr"/>
       <c r="Q361" t="inlineStr"/>
@@ -32269,13 +32447,11 @@
       </c>
       <c r="S361" t="inlineStr"/>
       <c r="T361" s="3" t="n">
-        <v>46062</v>
-      </c>
-      <c r="U361" s="3" t="n">
-        <v>46062</v>
-      </c>
+        <v>46063</v>
+      </c>
+      <c r="U361" t="inlineStr"/>
       <c r="V361" s="3" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="W361" t="inlineStr"/>
       <c r="X361" t="inlineStr"/>
@@ -32304,53 +32480,47 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-3</t>
+          <t>GP/99-126-CA-PI-4</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>5017083</t>
+          <t>5017116</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>LIMPIEZA</t>
+          <t>ALBAÑILERIA</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>0060</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Trasvase de residuos oleosos</t>
+          <t>Remc/inst lastre</t>
         </is>
       </c>
       <c r="I362" t="n">
-        <v>213.35</v>
+        <v>17000</v>
       </c>
       <c r="J362" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K362" t="n">
-        <v>2060671352</v>
-      </c>
-      <c r="L362" t="inlineStr">
-        <is>
-          <t>MULTISERVICIOS KALEB S.A.C.</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="inlineStr"/>
       <c r="M362" t="n">
-        <v>30019875</v>
+        <v>30019894</v>
       </c>
       <c r="N362" s="3" t="n">
-        <v>46048</v>
+        <v>46027</v>
       </c>
       <c r="O362" s="3" t="n">
-        <v>46048</v>
+        <v>46027</v>
       </c>
       <c r="P362" t="inlineStr"/>
       <c r="Q362" t="inlineStr"/>
@@ -32359,14 +32529,12 @@
       </c>
       <c r="S362" t="inlineStr"/>
       <c r="T362" s="3" t="n">
-        <v>46062</v>
+        <v>46043</v>
       </c>
       <c r="U362" s="3" t="n">
-        <v>46062</v>
-      </c>
-      <c r="V362" s="3" t="n">
-        <v>46062</v>
-      </c>
+        <v>46043</v>
+      </c>
+      <c r="V362" t="inlineStr"/>
       <c r="W362" t="inlineStr"/>
       <c r="X362" t="inlineStr"/>
       <c r="Y362" t="inlineStr"/>
@@ -32380,7 +32548,7 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
@@ -32409,16 +32577,16 @@
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>0040</t>
+          <t>0050</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Remoción de lastre MANNA</t>
+          <t>Remoción de lastre JORMER</t>
         </is>
       </c>
       <c r="I363" t="n">
-        <v>7747.87</v>
+        <v>2018.64</v>
       </c>
       <c r="J363" t="inlineStr">
         <is>
@@ -32426,25 +32594,23 @@
         </is>
       </c>
       <c r="K363" t="n">
-        <v>2051778677</v>
+        <v>2060025375</v>
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>MANNA S.A.C.</t>
+          <t>SERVICIOS GENERALES JORMER S.A.C.</t>
         </is>
       </c>
       <c r="M363" t="n">
         <v>30019894</v>
       </c>
       <c r="N363" s="3" t="n">
-        <v>46041</v>
+        <v>46061</v>
       </c>
       <c r="O363" s="3" t="n">
-        <v>46048</v>
-      </c>
-      <c r="P363" s="3" t="n">
-        <v>46059</v>
-      </c>
+        <v>46061</v>
+      </c>
+      <c r="P363" t="inlineStr"/>
       <c r="Q363" t="inlineStr"/>
       <c r="R363" t="n">
         <v>0</v>
@@ -32472,7 +32638,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
@@ -32486,85 +32652,81 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-4</t>
+          <t>GP/99-126-SA-PI</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>5017116</t>
+          <t>5017139</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>ALBAÑILERIA</t>
+          <t>SIST PETROLEO</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>0030</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Evacuación de lastre</t>
+          <t>Desm/confecc/mont tub</t>
         </is>
       </c>
       <c r="I364" t="n">
-        <v>1634.88</v>
+        <v>4000</v>
       </c>
       <c r="J364" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K364" t="n">
-        <v>2056921109</v>
-      </c>
-      <c r="L364" t="inlineStr">
-        <is>
-          <t>EMPRESA DE SERVICIOS MOBYDICK S.A.C</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="inlineStr"/>
       <c r="M364" t="n">
-        <v>30019894</v>
+        <v>30019928</v>
       </c>
       <c r="N364" s="3" t="n">
-        <v>46043</v>
+        <v>46048</v>
       </c>
       <c r="O364" s="3" t="n">
-        <v>46046</v>
-      </c>
-      <c r="P364" s="3" t="n">
-        <v>46056</v>
-      </c>
+        <v>46048</v>
+      </c>
+      <c r="P364" t="inlineStr"/>
       <c r="Q364" t="inlineStr"/>
       <c r="R364" t="n">
         <v>0</v>
       </c>
       <c r="S364" t="inlineStr"/>
       <c r="T364" s="3" t="n">
-        <v>46056</v>
+        <v>46048</v>
       </c>
       <c r="U364" s="3" t="n">
-        <v>46056</v>
-      </c>
-      <c r="V364" s="3" t="n">
-        <v>46056</v>
-      </c>
+        <v>46048</v>
+      </c>
+      <c r="V364" t="inlineStr"/>
       <c r="W364" t="inlineStr"/>
       <c r="X364" t="inlineStr"/>
-      <c r="Y364" t="inlineStr"/>
-      <c r="Z364" t="inlineStr"/>
-      <c r="AA364" t="inlineStr"/>
+      <c r="Y364" t="n">
+        <v>601.92</v>
+      </c>
+      <c r="Z364" t="n">
+        <v>595.17</v>
+      </c>
+      <c r="AA364" t="n">
+        <v>0</v>
+      </c>
       <c r="AB364" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>SISTEMAS AUXILIARES</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
@@ -32578,85 +32740,75 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-4</t>
+          <t>GP/99-126-SA-PI</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>5017116</t>
+          <t>5017141</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>ALBAÑILERIA</t>
+          <t>SIST LUBRICACION</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Suministro de sacos x lastre</t>
+          <t>Desm/confecc/mont tub</t>
         </is>
       </c>
       <c r="I365" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="J365" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K365" t="n">
-        <v>2051778677</v>
-      </c>
-      <c r="L365" t="inlineStr">
-        <is>
-          <t>MANNA S.A.C.</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="inlineStr"/>
       <c r="M365" t="n">
-        <v>30019894</v>
+        <v>30019940</v>
       </c>
       <c r="N365" s="3" t="n">
-        <v>45978</v>
+        <v>46048</v>
       </c>
       <c r="O365" s="3" t="n">
-        <v>46050</v>
-      </c>
-      <c r="P365" s="3" t="n">
-        <v>46049</v>
-      </c>
-      <c r="Q365" t="n">
-        <v>5010254294</v>
-      </c>
+        <v>46048</v>
+      </c>
+      <c r="P365" t="inlineStr"/>
+      <c r="Q365" t="inlineStr"/>
       <c r="R365" t="n">
-        <v>10</v>
-      </c>
-      <c r="S365" t="n">
-        <v>1002935031</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S365" t="inlineStr"/>
       <c r="T365" s="3" t="n">
-        <v>46049</v>
+        <v>46048</v>
       </c>
       <c r="U365" s="3" t="n">
-        <v>46049</v>
-      </c>
-      <c r="V365" s="3" t="n">
-        <v>46049</v>
-      </c>
+        <v>46048</v>
+      </c>
+      <c r="V365" t="inlineStr"/>
       <c r="W365" t="inlineStr"/>
-      <c r="X365" t="n">
-        <v>5105833700</v>
-      </c>
-      <c r="Y365" t="inlineStr"/>
-      <c r="Z365" t="inlineStr"/>
-      <c r="AA365" t="inlineStr"/>
+      <c r="X365" t="inlineStr"/>
+      <c r="Y365" t="n">
+        <v>1274.66</v>
+      </c>
+      <c r="Z365" t="n">
+        <v>1216.31</v>
+      </c>
+      <c r="AA365" t="n">
+        <v>0</v>
+      </c>
       <c r="AB365" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>SISTEMAS AUXILIARES</t>
         </is>
       </c>
     </row>
@@ -32676,17 +32828,17 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-4</t>
+          <t>GP/99-126-SA-PI</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>5017116</t>
+          <t>5017142</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>ALBAÑILERIA</t>
+          <t>SIST AGUA DULCE</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
@@ -32696,11 +32848,11 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Remc/inst lastre</t>
+          <t>Desm/confecc/mont tub</t>
         </is>
       </c>
       <c r="I366" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="J366" t="inlineStr">
         <is>
@@ -32710,13 +32862,13 @@
       <c r="K366" t="inlineStr"/>
       <c r="L366" t="inlineStr"/>
       <c r="M366" t="n">
-        <v>30019894</v>
+        <v>30019941</v>
       </c>
       <c r="N366" s="3" t="n">
-        <v>46027</v>
+        <v>46048</v>
       </c>
       <c r="O366" s="3" t="n">
-        <v>46027</v>
+        <v>46048</v>
       </c>
       <c r="P366" t="inlineStr"/>
       <c r="Q366" t="inlineStr"/>
@@ -32725,20 +32877,26 @@
       </c>
       <c r="S366" t="inlineStr"/>
       <c r="T366" s="3" t="n">
-        <v>46043</v>
+        <v>46048</v>
       </c>
       <c r="U366" s="3" t="n">
-        <v>46043</v>
+        <v>46048</v>
       </c>
       <c r="V366" t="inlineStr"/>
       <c r="W366" t="inlineStr"/>
       <c r="X366" t="inlineStr"/>
-      <c r="Y366" t="inlineStr"/>
-      <c r="Z366" t="inlineStr"/>
-      <c r="AA366" t="inlineStr"/>
+      <c r="Y366" t="n">
+        <v>1388.49</v>
+      </c>
+      <c r="Z366" t="n">
+        <v>1473.98</v>
+      </c>
+      <c r="AA366" t="n">
+        <v>0</v>
+      </c>
       <c r="AB366" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>SISTEMAS AUXILIARES</t>
         </is>
       </c>
     </row>
@@ -32758,53 +32916,47 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-4</t>
+          <t>GP/99-126-OM</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>5017116</t>
+          <t>5017137</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>ALBAÑILERIA</t>
+          <t>TUBERIAS</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>0050</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Remoción de lastre JORMER</t>
+          <t>Desm/mont x motor</t>
         </is>
       </c>
       <c r="I367" t="n">
-        <v>2629.68</v>
+        <v>3000</v>
       </c>
       <c r="J367" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K367" t="n">
-        <v>2051778677</v>
-      </c>
-      <c r="L367" t="inlineStr">
-        <is>
-          <t>MANNA S.A.C.</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="inlineStr"/>
       <c r="M367" t="n">
-        <v>30019894</v>
+        <v>30019926</v>
       </c>
       <c r="N367" s="3" t="n">
-        <v>46057</v>
+        <v>46048</v>
       </c>
       <c r="O367" s="3" t="n">
-        <v>46057</v>
+        <v>46048</v>
       </c>
       <c r="P367" t="inlineStr"/>
       <c r="Q367" t="inlineStr"/>
@@ -32813,14 +32965,12 @@
       </c>
       <c r="S367" t="inlineStr"/>
       <c r="T367" s="3" t="n">
-        <v>46057</v>
+        <v>46048</v>
       </c>
       <c r="U367" s="3" t="n">
-        <v>46057</v>
-      </c>
-      <c r="V367" s="3" t="n">
-        <v>46057</v>
-      </c>
+        <v>46048</v>
+      </c>
+      <c r="V367" t="inlineStr"/>
       <c r="W367" t="inlineStr"/>
       <c r="X367" t="inlineStr"/>
       <c r="Y367" t="inlineStr"/>
@@ -32828,13 +32978,13 @@
       <c r="AA367" t="inlineStr"/>
       <c r="AB367" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>OVERHAUL MOTOR</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
@@ -32853,52 +33003,44 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>5017117</t>
+          <t>5017177</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>LIMPIEZA E HIDROLAVADO</t>
+          <t>ARENADO Y PINTADO</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Hidrolavado de Casco O. Viva (368.85m2)</t>
+          <t>Arenado y pintado</t>
         </is>
       </c>
       <c r="I368" t="n">
-        <v>848.36</v>
+        <v>4000</v>
       </c>
       <c r="J368" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K368" t="n">
-        <v>2051778677</v>
-      </c>
-      <c r="L368" t="inlineStr">
-        <is>
-          <t>MANNA S.A.C.</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="inlineStr"/>
       <c r="M368" t="n">
-        <v>30019895</v>
+        <v>30019962</v>
       </c>
       <c r="N368" s="3" t="n">
-        <v>46037</v>
+        <v>46028</v>
       </c>
       <c r="O368" s="3" t="n">
-        <v>46042</v>
-      </c>
-      <c r="P368" s="3" t="n">
-        <v>46055</v>
-      </c>
+        <v>46028</v>
+      </c>
+      <c r="P368" t="inlineStr"/>
       <c r="Q368" t="inlineStr"/>
       <c r="R368" t="n">
         <v>0</v>
@@ -32907,12 +33049,8 @@
       <c r="T368" s="3" t="n">
         <v>46050</v>
       </c>
-      <c r="U368" s="3" t="n">
-        <v>46055</v>
-      </c>
-      <c r="V368" s="3" t="n">
-        <v>46050</v>
-      </c>
+      <c r="U368" t="inlineStr"/>
+      <c r="V368" t="inlineStr"/>
       <c r="W368" t="inlineStr"/>
       <c r="X368" t="inlineStr"/>
       <c r="Y368" t="inlineStr"/>
@@ -32926,7 +33064,7 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
@@ -32940,71 +33078,59 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-5</t>
+          <t>GP/99-126-CA-PI-6</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>5017117</t>
+          <t>5016860</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>LIMPIEZA E HIDROLAVADO</t>
+          <t>TRABAJOS INICIALES</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>0030</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Limp. de Casco fondo-Rasqueteo(55.33m2)</t>
+          <t>VARADA / DESVARADA</t>
         </is>
       </c>
       <c r="I369" t="n">
-        <v>88.53</v>
+        <v>0</v>
       </c>
       <c r="J369" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K369" t="n">
-        <v>2051778677</v>
-      </c>
-      <c r="L369" t="inlineStr">
-        <is>
-          <t>MANNA S.A.C.</t>
-        </is>
-      </c>
-      <c r="M369" t="n">
-        <v>30019895</v>
-      </c>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="inlineStr"/>
+      <c r="M369" t="inlineStr"/>
       <c r="N369" s="3" t="n">
-        <v>46037</v>
+        <v>46028</v>
       </c>
       <c r="O369" s="3" t="n">
-        <v>46042</v>
-      </c>
-      <c r="P369" s="3" t="n">
-        <v>46055</v>
-      </c>
+        <v>46028</v>
+      </c>
+      <c r="P369" t="inlineStr"/>
       <c r="Q369" t="inlineStr"/>
       <c r="R369" t="n">
         <v>0</v>
       </c>
       <c r="S369" t="inlineStr"/>
       <c r="T369" s="3" t="n">
-        <v>46050</v>
+        <v>46028</v>
       </c>
       <c r="U369" s="3" t="n">
-        <v>46055</v>
-      </c>
-      <c r="V369" s="3" t="n">
-        <v>46050</v>
-      </c>
+        <v>46029</v>
+      </c>
+      <c r="V369" t="inlineStr"/>
       <c r="W369" t="inlineStr"/>
       <c r="X369" t="inlineStr"/>
       <c r="Y369" t="inlineStr"/>
@@ -33032,31 +33158,31 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-5</t>
+          <t>GP/99-126-CA-PI-6</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>5017117</t>
+          <t>5016860</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>LIMPIEZA E HIDROLAVADO</t>
+          <t>TRABAJOS INICIALES</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>PPTO</t>
+          <t>ESTADIA DE LA EMBARCACION</t>
         </is>
       </c>
       <c r="I370" t="n">
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="J370" t="inlineStr">
         <is>
@@ -33065,9 +33191,7 @@
       </c>
       <c r="K370" t="inlineStr"/>
       <c r="L370" t="inlineStr"/>
-      <c r="M370" t="n">
-        <v>30019895</v>
-      </c>
+      <c r="M370" t="inlineStr"/>
       <c r="N370" s="3" t="n">
         <v>46028</v>
       </c>
@@ -33081,10 +33205,10 @@
       </c>
       <c r="S370" t="inlineStr"/>
       <c r="T370" s="3" t="n">
-        <v>46043</v>
+        <v>46028</v>
       </c>
       <c r="U370" s="3" t="n">
-        <v>46055</v>
+        <v>46029</v>
       </c>
       <c r="V370" t="inlineStr"/>
       <c r="W370" t="inlineStr"/>
@@ -33114,31 +33238,31 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-1</t>
+          <t>GP/99-126-CA-PI-6</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>5017120</t>
+          <t>5016860</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>CANALONES</t>
+          <t>TRABAJOS INICIALES</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Remc/inst de canalones</t>
+          <t>CALIBRACION</t>
         </is>
       </c>
       <c r="I371" t="n">
-        <v>3800</v>
+        <v>0</v>
       </c>
       <c r="J371" t="inlineStr">
         <is>
@@ -33147,14 +33271,12 @@
       </c>
       <c r="K371" t="inlineStr"/>
       <c r="L371" t="inlineStr"/>
-      <c r="M371" t="n">
-        <v>30019897</v>
-      </c>
+      <c r="M371" t="inlineStr"/>
       <c r="N371" s="3" t="n">
-        <v>46044</v>
+        <v>46028</v>
       </c>
       <c r="O371" s="3" t="n">
-        <v>46044</v>
+        <v>46028</v>
       </c>
       <c r="P371" t="inlineStr"/>
       <c r="Q371" t="inlineStr"/>
@@ -33163,22 +33285,22 @@
       </c>
       <c r="S371" t="inlineStr"/>
       <c r="T371" s="3" t="n">
-        <v>46044</v>
+        <v>46028</v>
       </c>
       <c r="U371" s="3" t="n">
-        <v>46044</v>
+        <v>46029</v>
       </c>
       <c r="V371" t="inlineStr"/>
       <c r="W371" t="inlineStr"/>
       <c r="X371" t="inlineStr"/>
       <c r="Y371" t="n">
-        <v>9507.305</v>
+        <v>17.5</v>
       </c>
       <c r="Z371" t="n">
-        <v>7089.17</v>
+        <v>17.5</v>
       </c>
       <c r="AA371" t="n">
-        <v>1627.77</v>
+        <v>0</v>
       </c>
       <c r="AB371" t="inlineStr">
         <is>
@@ -33202,17 +33324,17 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>GP/99-126-OM</t>
+          <t>GP/99-126-SA-PI</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>5017137</t>
+          <t>5017140</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>TUBERIAS</t>
+          <t>SIST ENFRIAMIENTO</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
@@ -33222,11 +33344,11 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Desm/mont x motor</t>
+          <t>Desm/confecc/mont tub</t>
         </is>
       </c>
       <c r="I372" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="J372" t="inlineStr">
         <is>
@@ -33236,7 +33358,7 @@
       <c r="K372" t="inlineStr"/>
       <c r="L372" t="inlineStr"/>
       <c r="M372" t="n">
-        <v>30019926</v>
+        <v>30019929</v>
       </c>
       <c r="N372" s="3" t="n">
         <v>46048</v>
@@ -33259,12 +33381,18 @@
       <c r="V372" t="inlineStr"/>
       <c r="W372" t="inlineStr"/>
       <c r="X372" t="inlineStr"/>
-      <c r="Y372" t="inlineStr"/>
-      <c r="Z372" t="inlineStr"/>
-      <c r="AA372" t="inlineStr"/>
+      <c r="Y372" t="n">
+        <v>1107.1</v>
+      </c>
+      <c r="Z372" t="n">
+        <v>1334.82</v>
+      </c>
+      <c r="AA372" t="n">
+        <v>108.75</v>
+      </c>
       <c r="AB372" t="inlineStr">
         <is>
-          <t>OVERHAUL MOTOR</t>
+          <t>SISTEMAS AUXILIARES</t>
         </is>
       </c>
     </row>
@@ -33289,12 +33417,12 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>5017138</t>
+          <t>5017143</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>SIST ACHIQUE</t>
+          <t>SIST SENSORES</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
@@ -33318,7 +33446,7 @@
       <c r="K373" t="inlineStr"/>
       <c r="L373" t="inlineStr"/>
       <c r="M373" t="n">
-        <v>30019927</v>
+        <v>30019942</v>
       </c>
       <c r="N373" s="3" t="n">
         <v>46048</v>
@@ -33342,13 +33470,13 @@
       <c r="W373" t="inlineStr"/>
       <c r="X373" t="inlineStr"/>
       <c r="Y373" t="n">
-        <v>13383.96</v>
+        <v>191.36</v>
       </c>
       <c r="Z373" t="n">
-        <v>12680.03</v>
+        <v>191.31</v>
       </c>
       <c r="AA373" t="n">
-        <v>577.02</v>
+        <v>0</v>
       </c>
       <c r="AB373" t="inlineStr">
         <is>
@@ -33372,17 +33500,17 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>GP/99-126-SA-PI</t>
+          <t>GP/99-126-CA-PI-5</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>5017139</t>
+          <t>5017117</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>SIST PETROLEO</t>
+          <t>LIMPIEZA E HIDROLAVADO</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
@@ -33392,11 +33520,11 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Desm/confecc/mont tub</t>
+          <t>PPTO</t>
         </is>
       </c>
       <c r="I374" t="n">
-        <v>4000</v>
+        <v>28000</v>
       </c>
       <c r="J374" t="inlineStr">
         <is>
@@ -33406,13 +33534,13 @@
       <c r="K374" t="inlineStr"/>
       <c r="L374" t="inlineStr"/>
       <c r="M374" t="n">
-        <v>30019928</v>
+        <v>30019895</v>
       </c>
       <c r="N374" s="3" t="n">
-        <v>46048</v>
+        <v>46028</v>
       </c>
       <c r="O374" s="3" t="n">
-        <v>46048</v>
+        <v>46028</v>
       </c>
       <c r="P374" t="inlineStr"/>
       <c r="Q374" t="inlineStr"/>
@@ -33421,26 +33549,20 @@
       </c>
       <c r="S374" t="inlineStr"/>
       <c r="T374" s="3" t="n">
-        <v>46048</v>
+        <v>46043</v>
       </c>
       <c r="U374" s="3" t="n">
-        <v>46048</v>
+        <v>46055</v>
       </c>
       <c r="V374" t="inlineStr"/>
       <c r="W374" t="inlineStr"/>
       <c r="X374" t="inlineStr"/>
-      <c r="Y374" t="n">
-        <v>601.92</v>
-      </c>
-      <c r="Z374" t="n">
-        <v>595.17</v>
-      </c>
-      <c r="AA374" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y374" t="inlineStr"/>
+      <c r="Z374" t="inlineStr"/>
+      <c r="AA374" t="inlineStr"/>
       <c r="AB374" t="inlineStr">
         <is>
-          <t>SISTEMAS AUXILIARES</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
@@ -33460,17 +33582,17 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>GP/99-126-SA-PI</t>
+          <t>GP/99-126-CA-PI-1</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>5017140</t>
+          <t>5017120</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>SIST ENFRIAMIENTO</t>
+          <t>CANALONES</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
@@ -33480,11 +33602,11 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Desm/confecc/mont tub</t>
+          <t>Remc/inst de canalones</t>
         </is>
       </c>
       <c r="I375" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="J375" t="inlineStr">
         <is>
@@ -33494,13 +33616,13 @@
       <c r="K375" t="inlineStr"/>
       <c r="L375" t="inlineStr"/>
       <c r="M375" t="n">
-        <v>30019929</v>
+        <v>30019897</v>
       </c>
       <c r="N375" s="3" t="n">
-        <v>46048</v>
+        <v>46044</v>
       </c>
       <c r="O375" s="3" t="n">
-        <v>46048</v>
+        <v>46044</v>
       </c>
       <c r="P375" t="inlineStr"/>
       <c r="Q375" t="inlineStr"/>
@@ -33509,26 +33631,26 @@
       </c>
       <c r="S375" t="inlineStr"/>
       <c r="T375" s="3" t="n">
-        <v>46048</v>
+        <v>46044</v>
       </c>
       <c r="U375" s="3" t="n">
-        <v>46048</v>
+        <v>46044</v>
       </c>
       <c r="V375" t="inlineStr"/>
       <c r="W375" t="inlineStr"/>
       <c r="X375" t="inlineStr"/>
       <c r="Y375" t="n">
-        <v>1194.53</v>
+        <v>9507.305</v>
       </c>
       <c r="Z375" t="n">
-        <v>1334.82</v>
+        <v>7089.17</v>
       </c>
       <c r="AA375" t="n">
-        <v>108.75</v>
+        <v>1627.77</v>
       </c>
       <c r="AB375" t="inlineStr">
         <is>
-          <t>SISTEMAS AUXILIARES</t>
+          <t>CASCO</t>
         </is>
       </c>
     </row>
@@ -33553,12 +33675,12 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>5017141</t>
+          <t>5016882</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>SIST LUBRICACION</t>
+          <t>VALVULAS</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -33568,11 +33690,11 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Desm/confecc/mont tub</t>
+          <t>Desm/mont de válvulas</t>
         </is>
       </c>
       <c r="I376" t="n">
-        <v>4000</v>
+        <v>8900</v>
       </c>
       <c r="J376" t="inlineStr">
         <is>
@@ -33582,13 +33704,13 @@
       <c r="K376" t="inlineStr"/>
       <c r="L376" t="inlineStr"/>
       <c r="M376" t="n">
-        <v>30019940</v>
+        <v>30019704</v>
       </c>
       <c r="N376" s="3" t="n">
-        <v>46048</v>
+        <v>46029</v>
       </c>
       <c r="O376" s="3" t="n">
-        <v>46048</v>
+        <v>46029</v>
       </c>
       <c r="P376" t="inlineStr"/>
       <c r="Q376" t="inlineStr"/>
@@ -33597,19 +33719,19 @@
       </c>
       <c r="S376" t="inlineStr"/>
       <c r="T376" s="3" t="n">
-        <v>46048</v>
+        <v>46029</v>
       </c>
       <c r="U376" s="3" t="n">
-        <v>46048</v>
+        <v>46029</v>
       </c>
       <c r="V376" t="inlineStr"/>
       <c r="W376" t="inlineStr"/>
       <c r="X376" t="inlineStr"/>
       <c r="Y376" t="n">
-        <v>1274.66</v>
+        <v>1776.217</v>
       </c>
       <c r="Z376" t="n">
-        <v>1216.31</v>
+        <v>1517.2</v>
       </c>
       <c r="AA376" t="n">
         <v>0</v>
@@ -33636,17 +33758,17 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>GP/99-126-SA-PI</t>
+          <t>GP/99-126-MO-PI-2</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>5017142</t>
+          <t>5016873</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>SIST AGUA DULCE</t>
+          <t>ADITAMENTOS</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
@@ -33656,11 +33778,11 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Desm/confecc/mont tub</t>
+          <t>Cambio de pl aditamentos</t>
         </is>
       </c>
       <c r="I377" t="n">
-        <v>4000</v>
+        <v>10800</v>
       </c>
       <c r="J377" t="inlineStr">
         <is>
@@ -33670,13 +33792,13 @@
       <c r="K377" t="inlineStr"/>
       <c r="L377" t="inlineStr"/>
       <c r="M377" t="n">
-        <v>30019941</v>
+        <v>30019719</v>
       </c>
       <c r="N377" s="3" t="n">
-        <v>46048</v>
+        <v>46028</v>
       </c>
       <c r="O377" s="3" t="n">
-        <v>46048</v>
+        <v>46028</v>
       </c>
       <c r="P377" t="inlineStr"/>
       <c r="Q377" t="inlineStr"/>
@@ -33685,26 +33807,20 @@
       </c>
       <c r="S377" t="inlineStr"/>
       <c r="T377" s="3" t="n">
-        <v>46048</v>
+        <v>46029</v>
       </c>
       <c r="U377" s="3" t="n">
-        <v>46048</v>
+        <v>46029</v>
       </c>
       <c r="V377" t="inlineStr"/>
       <c r="W377" t="inlineStr"/>
       <c r="X377" t="inlineStr"/>
-      <c r="Y377" t="n">
-        <v>1388.49</v>
-      </c>
-      <c r="Z377" t="n">
-        <v>1473.98</v>
-      </c>
-      <c r="AA377" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y377" t="inlineStr"/>
+      <c r="Z377" t="inlineStr"/>
+      <c r="AA377" t="inlineStr"/>
       <c r="AB377" t="inlineStr">
         <is>
-          <t>SISTEMAS AUXILIARES</t>
+          <t>OPEX</t>
         </is>
       </c>
     </row>
@@ -33724,17 +33840,17 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>GP/99-126-SA-PI</t>
+          <t>GP/99-126-MO-PI-2</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>5017143</t>
+          <t>5016874</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>SIST SENSORES</t>
+          <t>CADENA Y ANCLA</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
@@ -33744,11 +33860,11 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Desm/confecc/mont tub</t>
+          <t>Arriado y estibado de cadena</t>
         </is>
       </c>
       <c r="I378" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="J378" t="inlineStr">
         <is>
@@ -33758,13 +33874,13 @@
       <c r="K378" t="inlineStr"/>
       <c r="L378" t="inlineStr"/>
       <c r="M378" t="n">
-        <v>30019942</v>
+        <v>30019720</v>
       </c>
       <c r="N378" s="3" t="n">
-        <v>46048</v>
+        <v>46028</v>
       </c>
       <c r="O378" s="3" t="n">
-        <v>46048</v>
+        <v>46028</v>
       </c>
       <c r="P378" t="inlineStr"/>
       <c r="Q378" t="inlineStr"/>
@@ -33773,26 +33889,20 @@
       </c>
       <c r="S378" t="inlineStr"/>
       <c r="T378" s="3" t="n">
-        <v>46048</v>
+        <v>46029</v>
       </c>
       <c r="U378" s="3" t="n">
-        <v>46048</v>
+        <v>46029</v>
       </c>
       <c r="V378" t="inlineStr"/>
       <c r="W378" t="inlineStr"/>
       <c r="X378" t="inlineStr"/>
-      <c r="Y378" t="n">
-        <v>191.36</v>
-      </c>
-      <c r="Z378" t="n">
-        <v>191.31</v>
-      </c>
-      <c r="AA378" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y378" t="inlineStr"/>
+      <c r="Z378" t="inlineStr"/>
+      <c r="AA378" t="inlineStr"/>
       <c r="AB378" t="inlineStr">
         <is>
-          <t>SISTEMAS AUXILIARES</t>
+          <t>OPEX</t>
         </is>
       </c>
     </row>
@@ -33812,31 +33922,31 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-2</t>
+          <t>GP/99-126-MO-PI-2</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>5017176</t>
+          <t>5016875</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>PLUMA AUXILIAR</t>
+          <t>PESCANTES</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Confección de pluma auxiliar</t>
+          <t>Reparacion de pescante</t>
         </is>
       </c>
       <c r="I379" t="n">
-        <v>10800</v>
+        <v>2000</v>
       </c>
       <c r="J379" t="inlineStr">
         <is>
@@ -33846,13 +33956,13 @@
       <c r="K379" t="inlineStr"/>
       <c r="L379" t="inlineStr"/>
       <c r="M379" t="n">
-        <v>30019965</v>
+        <v>30019721</v>
       </c>
       <c r="N379" s="3" t="n">
-        <v>46050</v>
+        <v>46028</v>
       </c>
       <c r="O379" s="3" t="n">
-        <v>46050</v>
+        <v>46028</v>
       </c>
       <c r="P379" t="inlineStr"/>
       <c r="Q379" t="inlineStr"/>
@@ -33861,26 +33971,20 @@
       </c>
       <c r="S379" t="inlineStr"/>
       <c r="T379" s="3" t="n">
-        <v>46050</v>
+        <v>46029</v>
       </c>
       <c r="U379" s="3" t="n">
-        <v>46050</v>
+        <v>46029</v>
       </c>
       <c r="V379" t="inlineStr"/>
       <c r="W379" t="inlineStr"/>
       <c r="X379" t="inlineStr"/>
-      <c r="Y379" t="n">
-        <v>8493.199000000001</v>
-      </c>
-      <c r="Z379" t="n">
-        <v>7107.17</v>
-      </c>
-      <c r="AA379" t="n">
-        <v>1434.11634</v>
-      </c>
+      <c r="Y379" t="inlineStr"/>
+      <c r="Z379" t="inlineStr"/>
+      <c r="AA379" t="inlineStr"/>
       <c r="AB379" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>OPEX</t>
         </is>
       </c>
     </row>
@@ -33900,31 +34004,31 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-5</t>
+          <t>GP/99-126-MO-PI-2</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>5017177</t>
+          <t>5016875</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>ARENADO Y PINTADO</t>
+          <t>PESCANTES</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Arenado y pintado</t>
+          <t>Serv maquinado de acce. pescante</t>
         </is>
       </c>
       <c r="I380" t="n">
-        <v>4000</v>
+        <v>4260</v>
       </c>
       <c r="J380" t="inlineStr">
         <is>
@@ -33934,7 +34038,7 @@
       <c r="K380" t="inlineStr"/>
       <c r="L380" t="inlineStr"/>
       <c r="M380" t="n">
-        <v>30019962</v>
+        <v>30019721</v>
       </c>
       <c r="N380" s="3" t="n">
         <v>46028</v>
@@ -33949,9 +34053,11 @@
       </c>
       <c r="S380" t="inlineStr"/>
       <c r="T380" s="3" t="n">
-        <v>46050</v>
-      </c>
-      <c r="U380" t="inlineStr"/>
+        <v>46029</v>
+      </c>
+      <c r="U380" s="3" t="n">
+        <v>46029</v>
+      </c>
       <c r="V380" t="inlineStr"/>
       <c r="W380" t="inlineStr"/>
       <c r="X380" t="inlineStr"/>
@@ -33960,7 +34066,7 @@
       <c r="AA380" t="inlineStr"/>
       <c r="AB380" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>OPEX</t>
         </is>
       </c>
     </row>
@@ -33985,12 +34091,12 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>5017180</t>
+          <t>5017062</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>PLUMA PPAL Y TANGÓN</t>
+          <t>ESCAPE</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
@@ -34000,27 +34106,21 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Reparación de tangón</t>
+          <t>Cambio de tuberías de escape</t>
         </is>
       </c>
       <c r="I381" t="n">
-        <v>3500</v>
+        <v>6400</v>
       </c>
       <c r="J381" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K381" t="n">
-        <v>2053201679</v>
-      </c>
-      <c r="L381" t="inlineStr">
-        <is>
-          <t>MULTISERVICIOS KYP S.A.C.</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
+      <c r="L381" t="inlineStr"/>
       <c r="M381" t="n">
-        <v>30019966</v>
+        <v>30019840</v>
       </c>
       <c r="N381" s="3" t="n">
         <v>46028</v>
@@ -34035,24 +34135,22 @@
       </c>
       <c r="S381" t="inlineStr"/>
       <c r="T381" s="3" t="n">
-        <v>46050</v>
+        <v>46036</v>
       </c>
       <c r="U381" s="3" t="n">
-        <v>46050</v>
-      </c>
-      <c r="V381" s="3" t="n">
-        <v>46060</v>
-      </c>
+        <v>46036</v>
+      </c>
+      <c r="V381" t="inlineStr"/>
       <c r="W381" t="inlineStr"/>
       <c r="X381" t="inlineStr"/>
       <c r="Y381" t="n">
-        <v>1501.007</v>
+        <v>4778.245</v>
       </c>
       <c r="Z381" t="n">
-        <v>1282.9</v>
+        <v>220</v>
       </c>
       <c r="AA381" t="n">
-        <v>228.82146</v>
+        <v>0</v>
       </c>
       <c r="AB381" t="inlineStr">
         <is>
@@ -34081,42 +34179,36 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>5017180</t>
+          <t>5017063</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>PLUMA PPAL Y TANGÓN</t>
+          <t>PUERTAS ESTANCAS</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Reparación en pluma ppal</t>
+          <t>Cambio cáncamos y manijas en puertas</t>
         </is>
       </c>
       <c r="I382" t="n">
-        <v>3500</v>
+        <v>1</v>
       </c>
       <c r="J382" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K382" t="n">
-        <v>2053201679</v>
-      </c>
-      <c r="L382" t="inlineStr">
-        <is>
-          <t>MULTISERVICIOS KYP S.A.C.</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="inlineStr"/>
       <c r="M382" t="n">
-        <v>30019966</v>
+        <v>30019841</v>
       </c>
       <c r="N382" s="3" t="n">
         <v>46028</v>
@@ -34131,24 +34223,22 @@
       </c>
       <c r="S382" t="inlineStr"/>
       <c r="T382" s="3" t="n">
-        <v>46051</v>
+        <v>46036</v>
       </c>
       <c r="U382" s="3" t="n">
-        <v>46051</v>
-      </c>
-      <c r="V382" s="3" t="n">
-        <v>46060</v>
-      </c>
+        <v>46036</v>
+      </c>
+      <c r="V382" t="inlineStr"/>
       <c r="W382" t="inlineStr"/>
       <c r="X382" t="inlineStr"/>
       <c r="Y382" t="n">
-        <v>3077.063</v>
+        <v>11745.762</v>
       </c>
       <c r="Z382" t="n">
-        <v>1272.19</v>
+        <v>0</v>
       </c>
       <c r="AA382" t="n">
-        <v>18.487545</v>
+        <v>0</v>
       </c>
       <c r="AB382" t="inlineStr">
         <is>
@@ -34172,17 +34262,17 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>GP/99-126-PG-PI</t>
+          <t>GP/99-126-MO-PI-2</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>5017181</t>
+          <t>5017064</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>PALA TIMON</t>
+          <t>BODEGAS</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
@@ -34192,11 +34282,11 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Reparación de pala</t>
+          <t>Cambio estrucutra de colectores de piso</t>
         </is>
       </c>
       <c r="I383" t="n">
-        <v>1200</v>
+        <v>4200</v>
       </c>
       <c r="J383" t="inlineStr">
         <is>
@@ -34206,13 +34296,13 @@
       <c r="K383" t="inlineStr"/>
       <c r="L383" t="inlineStr"/>
       <c r="M383" t="n">
-        <v>30019967</v>
+        <v>30019842</v>
       </c>
       <c r="N383" s="3" t="n">
-        <v>46050</v>
+        <v>46028</v>
       </c>
       <c r="O383" s="3" t="n">
-        <v>46050</v>
+        <v>46028</v>
       </c>
       <c r="P383" t="inlineStr"/>
       <c r="Q383" t="inlineStr"/>
@@ -34221,26 +34311,26 @@
       </c>
       <c r="S383" t="inlineStr"/>
       <c r="T383" s="3" t="n">
-        <v>46050</v>
+        <v>46036</v>
       </c>
       <c r="U383" s="3" t="n">
-        <v>46050</v>
+        <v>46036</v>
       </c>
       <c r="V383" t="inlineStr"/>
       <c r="W383" t="inlineStr"/>
       <c r="X383" t="inlineStr"/>
       <c r="Y383" t="n">
-        <v>3226.406</v>
+        <v>896.295</v>
       </c>
       <c r="Z383" t="n">
-        <v>2808.77</v>
+        <v>0</v>
       </c>
       <c r="AA383" t="n">
-        <v>537.20847</v>
+        <v>0</v>
       </c>
       <c r="AB383" t="inlineStr">
         <is>
-          <t>PROPULSION Y GOBIERNO</t>
+          <t>OPEX</t>
         </is>
       </c>
     </row>
@@ -34260,17 +34350,17 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>GP/99-126-PG-PI</t>
+          <t>GP/99-126-MO-PI-2</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>5017181</t>
+          <t>5017064</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>PALA TIMON</t>
+          <t>BODEGAS</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
@@ -34280,11 +34370,11 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Prueba de estanqueidad de pala</t>
+          <t>Confección de abrazaderas de tubulares</t>
         </is>
       </c>
       <c r="I384" t="n">
-        <v>400</v>
+        <v>2560</v>
       </c>
       <c r="J384" t="inlineStr">
         <is>
@@ -34294,13 +34384,13 @@
       <c r="K384" t="inlineStr"/>
       <c r="L384" t="inlineStr"/>
       <c r="M384" t="n">
-        <v>30019967</v>
+        <v>30019842</v>
       </c>
       <c r="N384" s="3" t="n">
-        <v>46050</v>
+        <v>46028</v>
       </c>
       <c r="O384" s="3" t="n">
-        <v>46050</v>
+        <v>46028</v>
       </c>
       <c r="P384" t="inlineStr"/>
       <c r="Q384" t="inlineStr"/>
@@ -34309,26 +34399,32 @@
       </c>
       <c r="S384" t="inlineStr"/>
       <c r="T384" s="3" t="n">
-        <v>46050</v>
+        <v>46036</v>
       </c>
       <c r="U384" s="3" t="n">
-        <v>46050</v>
+        <v>46036</v>
       </c>
       <c r="V384" t="inlineStr"/>
       <c r="W384" t="inlineStr"/>
       <c r="X384" t="inlineStr"/>
-      <c r="Y384" t="inlineStr"/>
-      <c r="Z384" t="inlineStr"/>
-      <c r="AA384" t="inlineStr"/>
+      <c r="Y384" t="n">
+        <v>1337.169</v>
+      </c>
+      <c r="Z384" t="n">
+        <v>963.09</v>
+      </c>
+      <c r="AA384" t="n">
+        <v>135.6475</v>
+      </c>
       <c r="AB384" t="inlineStr">
         <is>
-          <t>PROPULSION Y GOBIERNO</t>
+          <t>OPEX</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
@@ -34347,12 +34443,12 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>5017240</t>
+          <t>5017066</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>TALLER EXTERNO</t>
+          <t>AMURADA</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
@@ -34362,56 +34458,52 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Serv plegado defensa de red y desag tub</t>
+          <t>Cambio de amurada</t>
         </is>
       </c>
       <c r="I385" t="n">
-        <v>438.05</v>
+        <v>5200</v>
       </c>
       <c r="J385" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K385" t="n">
-        <v>2028255578</v>
-      </c>
-      <c r="L385" t="inlineStr">
-        <is>
-          <t>ESTRUCTURAS METALICAS INDUSTRIALES</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
+      <c r="L385" t="inlineStr"/>
       <c r="M385" t="n">
-        <v>30020041</v>
+        <v>30019844</v>
       </c>
       <c r="N385" s="3" t="n">
-        <v>46049</v>
+        <v>46028</v>
       </c>
       <c r="O385" s="3" t="n">
-        <v>46056</v>
-      </c>
-      <c r="P385" s="3" t="n">
-        <v>46056</v>
-      </c>
+        <v>46028</v>
+      </c>
+      <c r="P385" t="inlineStr"/>
       <c r="Q385" t="inlineStr"/>
       <c r="R385" t="n">
         <v>0</v>
       </c>
       <c r="S385" t="inlineStr"/>
       <c r="T385" s="3" t="n">
-        <v>46056</v>
+        <v>46036</v>
       </c>
       <c r="U385" s="3" t="n">
-        <v>46056</v>
-      </c>
-      <c r="V385" s="3" t="n">
-        <v>46056</v>
-      </c>
+        <v>46036</v>
+      </c>
+      <c r="V385" t="inlineStr"/>
       <c r="W385" t="inlineStr"/>
       <c r="X385" t="inlineStr"/>
-      <c r="Y385" t="inlineStr"/>
-      <c r="Z385" t="inlineStr"/>
-      <c r="AA385" t="inlineStr"/>
+      <c r="Y385" t="n">
+        <v>7207.004</v>
+      </c>
+      <c r="Z385" t="n">
+        <v>5512.290000000001</v>
+      </c>
+      <c r="AA385" t="n">
+        <v>1210.6544</v>
+      </c>
       <c r="AB385" t="inlineStr">
         <is>
           <t>OPEX</t>
@@ -34434,17 +34526,17 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-1</t>
+          <t>GP/99-126-MO-PI-2</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>5017245</t>
+          <t>5017067</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>BODEGA</t>
+          <t>REGALA</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
@@ -34454,11 +34546,11 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Cambio de mamp en SM - Bdg central</t>
+          <t>Cambio de regala</t>
         </is>
       </c>
       <c r="I386" t="n">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="J386" t="inlineStr">
         <is>
@@ -34468,13 +34560,13 @@
       <c r="K386" t="inlineStr"/>
       <c r="L386" t="inlineStr"/>
       <c r="M386" t="n">
-        <v>30020042</v>
+        <v>30019845</v>
       </c>
       <c r="N386" s="3" t="n">
-        <v>46056</v>
+        <v>46028</v>
       </c>
       <c r="O386" s="3" t="n">
-        <v>46056</v>
+        <v>46028</v>
       </c>
       <c r="P386" t="inlineStr"/>
       <c r="Q386" t="inlineStr"/>
@@ -34483,20 +34575,26 @@
       </c>
       <c r="S386" t="inlineStr"/>
       <c r="T386" s="3" t="n">
-        <v>46056</v>
+        <v>46036</v>
       </c>
       <c r="U386" s="3" t="n">
-        <v>46056</v>
+        <v>46036</v>
       </c>
       <c r="V386" t="inlineStr"/>
       <c r="W386" t="inlineStr"/>
       <c r="X386" t="inlineStr"/>
-      <c r="Y386" t="inlineStr"/>
-      <c r="Z386" t="inlineStr"/>
-      <c r="AA386" t="inlineStr"/>
+      <c r="Y386" t="n">
+        <v>2401.4</v>
+      </c>
+      <c r="Z386" t="n">
+        <v>338.73</v>
+      </c>
+      <c r="AA386" t="n">
+        <v>0</v>
+      </c>
       <c r="AB386" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>OPEX</t>
         </is>
       </c>
     </row>
@@ -34516,31 +34614,31 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-1</t>
+          <t>GP/99-126-MO-PI-2</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>5017245</t>
+          <t>5017076</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>BODEGA</t>
+          <t>PAÑOL DE CADENAS</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Confección de tapa empernada</t>
+          <t>Libre</t>
         </is>
       </c>
       <c r="I387" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="J387" t="inlineStr">
         <is>
@@ -34550,13 +34648,13 @@
       <c r="K387" t="inlineStr"/>
       <c r="L387" t="inlineStr"/>
       <c r="M387" t="n">
-        <v>30020042</v>
+        <v>30019823</v>
       </c>
       <c r="N387" s="3" t="n">
-        <v>46056</v>
+        <v>46028</v>
       </c>
       <c r="O387" s="3" t="n">
-        <v>46056</v>
+        <v>46028</v>
       </c>
       <c r="P387" t="inlineStr"/>
       <c r="Q387" t="inlineStr"/>
@@ -34565,10 +34663,10 @@
       </c>
       <c r="S387" t="inlineStr"/>
       <c r="T387" s="3" t="n">
-        <v>46056</v>
+        <v>46036</v>
       </c>
       <c r="U387" s="3" t="n">
-        <v>46056</v>
+        <v>46036</v>
       </c>
       <c r="V387" t="inlineStr"/>
       <c r="W387" t="inlineStr"/>
@@ -34578,13 +34676,13 @@
       <c r="AA387" t="inlineStr"/>
       <c r="AB387" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>OPEX</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
@@ -34598,17 +34696,17 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>GP/99-126-SA-PI</t>
+          <t>GP/99-126-MO-PI-2</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>5017267</t>
+          <t>5017078</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>MISCELANEOS</t>
+          <t>GATERA</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
@@ -34618,51 +34716,41 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Aren. Pint. Tub, Valv, Carrete (MANNA)</t>
+          <t>Confección de gatero</t>
         </is>
       </c>
       <c r="I388" t="n">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="J388" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K388" t="n">
-        <v>2051778677</v>
-      </c>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>MANNA S.A.C.</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
+      <c r="L388" t="inlineStr"/>
       <c r="M388" t="n">
-        <v>30020171</v>
+        <v>30019860</v>
       </c>
       <c r="N388" s="3" t="n">
-        <v>46042</v>
+        <v>46028</v>
       </c>
       <c r="O388" s="3" t="n">
-        <v>46062</v>
-      </c>
-      <c r="P388" s="3" t="n">
-        <v>46062</v>
-      </c>
+        <v>46028</v>
+      </c>
+      <c r="P388" t="inlineStr"/>
       <c r="Q388" t="inlineStr"/>
       <c r="R388" t="n">
         <v>0</v>
       </c>
       <c r="S388" t="inlineStr"/>
       <c r="T388" s="3" t="n">
-        <v>46062</v>
+        <v>46037</v>
       </c>
       <c r="U388" s="3" t="n">
-        <v>46062</v>
-      </c>
-      <c r="V388" s="3" t="n">
-        <v>46062</v>
-      </c>
+        <v>46037</v>
+      </c>
+      <c r="V388" t="inlineStr"/>
       <c r="W388" t="inlineStr"/>
       <c r="X388" t="inlineStr"/>
       <c r="Y388" t="inlineStr"/>
@@ -34670,13 +34758,13 @@
       <c r="AA388" t="inlineStr"/>
       <c r="AB388" t="inlineStr">
         <is>
-          <t>SISTEMAS AUXILIARES</t>
+          <t>OPEX</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
@@ -34690,71 +34778,61 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>GP/99-126-SA-PI</t>
+          <t>GP/99-126-MO-PI-2</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>5017267</t>
+          <t>5017311</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>MISCELANEOS</t>
+          <t>NUMEROS DE CALADO</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Aren. Pint. Ejes, Sist Gob, Pala timon</t>
+          <t>Confecc números de calado</t>
         </is>
       </c>
       <c r="I389" t="n">
-        <v>304.84</v>
+        <v>800</v>
       </c>
       <c r="J389" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K389" t="n">
-        <v>2051778677</v>
-      </c>
-      <c r="L389" t="inlineStr">
-        <is>
-          <t>MANNA S.A.C.</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
+      <c r="L389" t="inlineStr"/>
       <c r="M389" t="n">
-        <v>30020171</v>
+        <v>30020134</v>
       </c>
       <c r="N389" s="3" t="n">
-        <v>46042</v>
+        <v>46059</v>
       </c>
       <c r="O389" s="3" t="n">
-        <v>46044</v>
-      </c>
-      <c r="P389" s="3" t="n">
-        <v>46062</v>
-      </c>
+        <v>46059</v>
+      </c>
+      <c r="P389" t="inlineStr"/>
       <c r="Q389" t="inlineStr"/>
       <c r="R389" t="n">
         <v>0</v>
       </c>
       <c r="S389" t="inlineStr"/>
       <c r="T389" s="3" t="n">
-        <v>46062</v>
+        <v>46059</v>
       </c>
       <c r="U389" s="3" t="n">
-        <v>46062</v>
-      </c>
-      <c r="V389" s="3" t="n">
-        <v>46062</v>
-      </c>
+        <v>46059</v>
+      </c>
+      <c r="V389" t="inlineStr"/>
       <c r="W389" t="inlineStr"/>
       <c r="X389" t="inlineStr"/>
       <c r="Y389" t="inlineStr"/>
@@ -34762,13 +34840,13 @@
       <c r="AA389" t="inlineStr"/>
       <c r="AB389" t="inlineStr">
         <is>
-          <t>SISTEMAS AUXILIARES</t>
+          <t>OPEX</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
@@ -34782,71 +34860,61 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>GP/99-126-SA-PI</t>
+          <t>GP/99-126-MO-PI-2</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>5017267</t>
+          <t>5016868</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>MISCELANEOS</t>
+          <t>PROTECCION CATODICA</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>0030</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Aren.Pint. Cad y ancla, pescant ppal,aux</t>
+          <t>Confección de placa de ánodo de zinc</t>
         </is>
       </c>
       <c r="I390" t="n">
-        <v>925</v>
+        <v>400</v>
       </c>
       <c r="J390" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K390" t="n">
-        <v>2051778677</v>
-      </c>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>MANNA S.A.C.</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
+      <c r="L390" t="inlineStr"/>
       <c r="M390" t="n">
-        <v>30020171</v>
+        <v>30019714</v>
       </c>
       <c r="N390" s="3" t="n">
-        <v>46042</v>
+        <v>46059</v>
       </c>
       <c r="O390" s="3" t="n">
-        <v>46044</v>
-      </c>
-      <c r="P390" s="3" t="n">
-        <v>46062</v>
-      </c>
+        <v>46059</v>
+      </c>
+      <c r="P390" t="inlineStr"/>
       <c r="Q390" t="inlineStr"/>
       <c r="R390" t="n">
         <v>0</v>
       </c>
       <c r="S390" t="inlineStr"/>
       <c r="T390" s="3" t="n">
-        <v>46062</v>
+        <v>46059</v>
       </c>
       <c r="U390" s="3" t="n">
-        <v>46062</v>
-      </c>
-      <c r="V390" s="3" t="n">
-        <v>46062</v>
-      </c>
+        <v>46059</v>
+      </c>
+      <c r="V390" t="inlineStr"/>
       <c r="W390" t="inlineStr"/>
       <c r="X390" t="inlineStr"/>
       <c r="Y390" t="inlineStr"/>
@@ -34854,13 +34922,13 @@
       <c r="AA390" t="inlineStr"/>
       <c r="AB390" t="inlineStr">
         <is>
-          <t>SISTEMAS AUXILIARES</t>
+          <t>OPEX</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
@@ -34874,17 +34942,17 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>GP/99-126-CA-PI-5</t>
+          <t>GP/99-126-MO-PI-2</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>5017268</t>
+          <t>5016872</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>MISCELANEOS</t>
+          <t>DEFENSA DE CASCO</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
@@ -34894,59 +34962,55 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Aren. Pint. PL, PLT, Pinzote, barraganet</t>
+          <t>Relleno soldadura codillo, barra defensa</t>
         </is>
       </c>
       <c r="I391" t="n">
-        <v>5568.57</v>
+        <v>1600</v>
       </c>
       <c r="J391" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="K391" t="n">
-        <v>2051778677</v>
-      </c>
-      <c r="L391" t="inlineStr">
-        <is>
-          <t>MANNA S.A.C.</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
+      <c r="L391" t="inlineStr"/>
       <c r="M391" t="n">
-        <v>30020172</v>
+        <v>30019718</v>
       </c>
       <c r="N391" s="3" t="n">
-        <v>46045</v>
+        <v>46028</v>
       </c>
       <c r="O391" s="3" t="n">
-        <v>46062</v>
-      </c>
-      <c r="P391" s="3" t="n">
-        <v>46062</v>
-      </c>
+        <v>46028</v>
+      </c>
+      <c r="P391" t="inlineStr"/>
       <c r="Q391" t="inlineStr"/>
       <c r="R391" t="n">
         <v>0</v>
       </c>
       <c r="S391" t="inlineStr"/>
       <c r="T391" s="3" t="n">
-        <v>46057</v>
+        <v>46029</v>
       </c>
       <c r="U391" s="3" t="n">
-        <v>46062</v>
-      </c>
-      <c r="V391" s="3" t="n">
-        <v>46062</v>
-      </c>
+        <v>46029</v>
+      </c>
+      <c r="V391" t="inlineStr"/>
       <c r="W391" t="inlineStr"/>
       <c r="X391" t="inlineStr"/>
-      <c r="Y391" t="inlineStr"/>
-      <c r="Z391" t="inlineStr"/>
-      <c r="AA391" t="inlineStr"/>
+      <c r="Y391" t="n">
+        <v>161.05</v>
+      </c>
+      <c r="Z391" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA391" t="n">
+        <v>0</v>
+      </c>
       <c r="AB391" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>OPEX</t>
         </is>
       </c>
     </row>
@@ -34971,26 +35035,26 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>5017309</t>
+          <t>5016872</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>ENFRIAMIENTO</t>
+          <t>DEFENSA DE CASCO</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Aper/cierre ventanas quilla y canaletas</t>
+          <t>Cambio verduguete</t>
         </is>
       </c>
       <c r="I392" t="n">
-        <v>9100</v>
+        <v>5200</v>
       </c>
       <c r="J392" t="inlineStr">
         <is>
@@ -35000,13 +35064,13 @@
       <c r="K392" t="inlineStr"/>
       <c r="L392" t="inlineStr"/>
       <c r="M392" t="n">
-        <v>30020132</v>
+        <v>30019718</v>
       </c>
       <c r="N392" s="3" t="n">
-        <v>46059</v>
+        <v>46028</v>
       </c>
       <c r="O392" s="3" t="n">
-        <v>46059</v>
+        <v>46028</v>
       </c>
       <c r="P392" t="inlineStr"/>
       <c r="Q392" t="inlineStr"/>
@@ -35015,10 +35079,10 @@
       </c>
       <c r="S392" t="inlineStr"/>
       <c r="T392" s="3" t="n">
-        <v>46059</v>
+        <v>46029</v>
       </c>
       <c r="U392" s="3" t="n">
-        <v>46059</v>
+        <v>46029</v>
       </c>
       <c r="V392" t="inlineStr"/>
       <c r="W392" t="inlineStr"/>
@@ -35053,26 +35117,26 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>5017309</t>
+          <t>5016872</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>ENFRIAMIENTO</t>
+          <t>DEFENSA DE CASCO</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>0020</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Lavado de canaletas y quilla</t>
+          <t>Cambio de barras defensa</t>
         </is>
       </c>
       <c r="I393" t="n">
-        <v>500</v>
+        <v>13200</v>
       </c>
       <c r="J393" t="inlineStr">
         <is>
@@ -35082,7 +35146,7 @@
       <c r="K393" t="inlineStr"/>
       <c r="L393" t="inlineStr"/>
       <c r="M393" t="n">
-        <v>30020132</v>
+        <v>30019718</v>
       </c>
       <c r="N393" s="3" t="n">
         <v>46059</v>
@@ -35145,16 +35209,16 @@
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>0030</t>
+          <t>0010</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Flushing de sistema enfriamiento</t>
+          <t>Aper/cierre ventanas quilla y canaletas</t>
         </is>
       </c>
       <c r="I394" t="n">
-        <v>2400</v>
+        <v>9100</v>
       </c>
       <c r="J394" t="inlineStr">
         <is>
@@ -35227,16 +35291,16 @@
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>0040</t>
+          <t>0020</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Prueba estanca</t>
+          <t>Lavado de canaletas y quilla</t>
         </is>
       </c>
       <c r="I395" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="J395" t="inlineStr">
         <is>
@@ -35309,16 +35373,16 @@
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>0050</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Cambio parcial de canaleta</t>
+          <t>Flushing de sistema enfriamiento</t>
         </is>
       </c>
       <c r="I396" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="J396" t="inlineStr">
         <is>
@@ -35381,22 +35445,22 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>5017311</t>
+          <t>5017309</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>NUMEROS DE CALADO</t>
+          <t>ENFRIAMIENTO</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>0010</t>
+          <t>0040</t>
         </is>
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Confecc números de calado</t>
+          <t>Prueba estanca</t>
         </is>
       </c>
       <c r="I397" t="n">
@@ -35410,7 +35474,7 @@
       <c r="K397" t="inlineStr"/>
       <c r="L397" t="inlineStr"/>
       <c r="M397" t="n">
-        <v>30020134</v>
+        <v>30020132</v>
       </c>
       <c r="N397" s="3" t="n">
         <v>46059</v>
@@ -35442,6 +35506,346 @@
         </is>
       </c>
     </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>0</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>EP TASA 414</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>GP/99</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>GP/99-126-MO-PI-2</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>5017309</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>ENFRIAMIENTO</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>0050</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>Cambio parcial de canaleta</t>
+        </is>
+      </c>
+      <c r="I398" t="n">
+        <v>800</v>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K398" t="inlineStr"/>
+      <c r="L398" t="inlineStr"/>
+      <c r="M398" t="n">
+        <v>30020132</v>
+      </c>
+      <c r="N398" s="3" t="n">
+        <v>46059</v>
+      </c>
+      <c r="O398" s="3" t="n">
+        <v>46059</v>
+      </c>
+      <c r="P398" t="inlineStr"/>
+      <c r="Q398" t="inlineStr"/>
+      <c r="R398" t="n">
+        <v>0</v>
+      </c>
+      <c r="S398" t="inlineStr"/>
+      <c r="T398" s="3" t="n">
+        <v>46059</v>
+      </c>
+      <c r="U398" s="3" t="n">
+        <v>46059</v>
+      </c>
+      <c r="V398" t="inlineStr"/>
+      <c r="W398" t="inlineStr"/>
+      <c r="X398" t="inlineStr"/>
+      <c r="Y398" t="inlineStr"/>
+      <c r="Z398" t="inlineStr"/>
+      <c r="AA398" t="inlineStr"/>
+      <c r="AB398" t="inlineStr">
+        <is>
+          <t>OPEX</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>0</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>EP TASA 414</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>GP/99</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>GP/99-126-PG-PI</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>5017181</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>PALA TIMON</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>Reparación de pala</t>
+        </is>
+      </c>
+      <c r="I399" t="n">
+        <v>1200</v>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K399" t="inlineStr"/>
+      <c r="L399" t="inlineStr"/>
+      <c r="M399" t="n">
+        <v>30019967</v>
+      </c>
+      <c r="N399" s="3" t="n">
+        <v>46050</v>
+      </c>
+      <c r="O399" s="3" t="n">
+        <v>46050</v>
+      </c>
+      <c r="P399" t="inlineStr"/>
+      <c r="Q399" t="inlineStr"/>
+      <c r="R399" t="n">
+        <v>0</v>
+      </c>
+      <c r="S399" t="inlineStr"/>
+      <c r="T399" s="3" t="n">
+        <v>46050</v>
+      </c>
+      <c r="U399" s="3" t="n">
+        <v>46050</v>
+      </c>
+      <c r="V399" t="inlineStr"/>
+      <c r="W399" t="inlineStr"/>
+      <c r="X399" t="inlineStr"/>
+      <c r="Y399" t="n">
+        <v>3226.406</v>
+      </c>
+      <c r="Z399" t="n">
+        <v>2808.77</v>
+      </c>
+      <c r="AA399" t="n">
+        <v>537.20847</v>
+      </c>
+      <c r="AB399" t="inlineStr">
+        <is>
+          <t>PROPULSION Y GOBIERNO</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>0</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>EP TASA 414</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>GP/99</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>GP/99-126-PG-PI</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>5017181</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>PALA TIMON</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>0020</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>Prueba de estanqueidad de pala</t>
+        </is>
+      </c>
+      <c r="I400" t="n">
+        <v>400</v>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K400" t="inlineStr"/>
+      <c r="L400" t="inlineStr"/>
+      <c r="M400" t="n">
+        <v>30019967</v>
+      </c>
+      <c r="N400" s="3" t="n">
+        <v>46050</v>
+      </c>
+      <c r="O400" s="3" t="n">
+        <v>46050</v>
+      </c>
+      <c r="P400" t="inlineStr"/>
+      <c r="Q400" t="inlineStr"/>
+      <c r="R400" t="n">
+        <v>0</v>
+      </c>
+      <c r="S400" t="inlineStr"/>
+      <c r="T400" s="3" t="n">
+        <v>46050</v>
+      </c>
+      <c r="U400" s="3" t="n">
+        <v>46050</v>
+      </c>
+      <c r="V400" t="inlineStr"/>
+      <c r="W400" t="inlineStr"/>
+      <c r="X400" t="inlineStr"/>
+      <c r="Y400" t="inlineStr"/>
+      <c r="Z400" t="inlineStr"/>
+      <c r="AA400" t="inlineStr"/>
+      <c r="AB400" t="inlineStr">
+        <is>
+          <t>PROPULSION Y GOBIERNO</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>0</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>EP TASA 414</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>GP/99</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>GP/99-126-CA-PI-1</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>5017075</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>CUBIERTA PPAL</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>0010</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>Cambio de pl en cbt</t>
+        </is>
+      </c>
+      <c r="I401" t="n">
+        <v>13500</v>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>PEN</t>
+        </is>
+      </c>
+      <c r="K401" t="inlineStr"/>
+      <c r="L401" t="inlineStr"/>
+      <c r="M401" t="n">
+        <v>30019822</v>
+      </c>
+      <c r="N401" s="3" t="n">
+        <v>46036</v>
+      </c>
+      <c r="O401" s="3" t="n">
+        <v>46036</v>
+      </c>
+      <c r="P401" t="inlineStr"/>
+      <c r="Q401" t="inlineStr"/>
+      <c r="R401" t="n">
+        <v>0</v>
+      </c>
+      <c r="S401" t="inlineStr"/>
+      <c r="T401" s="3" t="n">
+        <v>46036</v>
+      </c>
+      <c r="U401" s="3" t="n">
+        <v>46036</v>
+      </c>
+      <c r="V401" t="inlineStr"/>
+      <c r="W401" t="inlineStr"/>
+      <c r="X401" t="inlineStr"/>
+      <c r="Y401" t="n">
+        <v>21575.405</v>
+      </c>
+      <c r="Z401" t="n">
+        <v>15671.93</v>
+      </c>
+      <c r="AA401" t="n">
+        <v>4122.33072</v>
+      </c>
+      <c r="AB401" t="inlineStr">
+        <is>
+          <t>CASCO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2026-1/UTI.xlsx
+++ b/2026-1/UTI.xlsx
@@ -17434,7 +17434,7 @@
       </c>
       <c r="AB181" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>SISTEMAS AUXILIARES</t>
         </is>
       </c>
     </row>
@@ -17522,7 +17522,7 @@
       </c>
       <c r="AB182" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>SISTEMAS AUXILIARES</t>
         </is>
       </c>
     </row>
@@ -17604,7 +17604,7 @@
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>SISTEMAS AUXILIARES</t>
         </is>
       </c>
     </row>
@@ -17692,7 +17692,7 @@
       </c>
       <c r="AB184" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>SISTEMAS AUXILIARES</t>
         </is>
       </c>
     </row>
@@ -17780,7 +17780,7 @@
       </c>
       <c r="AB185" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>SISTEMAS AUXILIARES</t>
         </is>
       </c>
     </row>
@@ -17868,7 +17868,7 @@
       </c>
       <c r="AB186" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>SISTEMAS AUXILIARES</t>
         </is>
       </c>
     </row>
@@ -17956,7 +17956,7 @@
       </c>
       <c r="AB187" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>SISTEMAS AUXILIARES</t>
         </is>
       </c>
     </row>
@@ -22012,7 +22012,7 @@
       <c r="AA231" t="inlineStr"/>
       <c r="AB231" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>TRATAMIENTO SUPERFICIAL</t>
         </is>
       </c>
     </row>
@@ -22110,7 +22110,7 @@
       <c r="AA232" t="inlineStr"/>
       <c r="AB232" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>TRATAMIENTO SUPERFICIAL</t>
         </is>
       </c>
     </row>
@@ -22192,7 +22192,7 @@
       <c r="AA233" t="inlineStr"/>
       <c r="AB233" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>SISTEMAS AUXILIARES</t>
         </is>
       </c>
     </row>
@@ -22274,7 +22274,7 @@
       <c r="AA234" t="inlineStr"/>
       <c r="AB234" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>SISTEMAS AUXILIARES</t>
         </is>
       </c>
     </row>
@@ -22362,7 +22362,7 @@
       </c>
       <c r="AB235" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>SISTEMAS AUXILIARES</t>
         </is>
       </c>
     </row>
@@ -22450,7 +22450,7 @@
       </c>
       <c r="AB236" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>SISTEMAS AUXILIARES</t>
         </is>
       </c>
     </row>
@@ -22532,7 +22532,7 @@
       <c r="AA237" t="inlineStr"/>
       <c r="AB237" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>SISTEMAS AUXILIARES</t>
         </is>
       </c>
     </row>
@@ -22620,7 +22620,7 @@
       </c>
       <c r="AB238" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>SISTEMAS AUXILIARES</t>
         </is>
       </c>
     </row>
@@ -22708,7 +22708,7 @@
       </c>
       <c r="AB239" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>SISTEMAS AUXILIARES</t>
         </is>
       </c>
     </row>
@@ -22796,7 +22796,7 @@
       </c>
       <c r="AB240" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>SISTEMAS AUXILIARES</t>
         </is>
       </c>
     </row>
@@ -23074,7 +23074,7 @@
       <c r="AA243" t="inlineStr"/>
       <c r="AB243" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>TRATAMIENTO SUPERFICIAL</t>
         </is>
       </c>
     </row>
@@ -23162,7 +23162,7 @@
       <c r="AA244" t="inlineStr"/>
       <c r="AB244" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>TRATAMIENTO SUPERFICIAL</t>
         </is>
       </c>
     </row>
@@ -23628,7 +23628,7 @@
       </c>
       <c r="AB249" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>SISTEMAS AUXILIARES</t>
         </is>
       </c>
     </row>
@@ -23912,7 +23912,7 @@
       </c>
       <c r="AB252" t="inlineStr">
         <is>
-          <t>CASCO</t>
+          <t>SISTEMAS AUXILIARES</t>
         </is>
       </c>
     </row>
